--- a/TestResults.xlsx
+++ b/TestResults.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L265"/>
+  <dimension ref="A1:L266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13337,6 +13337,68 @@
       <c r="L265" s="1" t="inlineStr">
         <is>
           <t>C:\Users\Fattal\Desktop\newTest\Fattal AutomationV1\Fattal_Tests\logs\test_mobile_booking_anonymous_user_2025-04-17_09-53-57.log</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>test_mobile_booking_anonymous_user</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Test Description</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>2025-04-17 11:43:55</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>53.81s</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>chrome</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>Windows</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>חן טסט</t>
+        </is>
+      </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>chenttedgui@gmail.com</t>
+        </is>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>980023947</t>
+        </is>
+      </c>
+      <c r="K266" s="1" t="inlineStr">
+        <is>
+          <t>C:\Users\Fattal\Desktop\newTest\Fattal AutomationV1\Fattal_Tests\Screenshots\confirmation_PASS_2025-04-17_11-43-54.png</t>
+        </is>
+      </c>
+      <c r="L266" s="1" t="inlineStr">
+        <is>
+          <t>C:\Users\Fattal\Desktop\newTest\Fattal AutomationV1\Fattal_Tests\logs\test_mobile_booking_anonymous_user_2025-04-17_11-43-54.log</t>
         </is>
       </c>
     </row>
@@ -13868,6 +13930,8 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L264" r:id="rId524"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="K265" r:id="rId525"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L265" r:id="rId526"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="K266" r:id="rId527"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L266" r:id="rId528"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/TestResults.xlsx
+++ b/TestResults.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L266"/>
+  <dimension ref="A1:L281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13399,6 +13399,798 @@
       <c r="L266" s="1" t="inlineStr">
         <is>
           <t>C:\Users\Fattal\Desktop\newTest\Fattal AutomationV1\Fattal_Tests\logs\test_mobile_booking_anonymous_user_2025-04-17_11-43-54.log</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>test_mobile_booking_anonymous_random_guest_details</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Test Description</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>2025-04-17 13:25:30</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>40.55s</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>chrome</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>Windows</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>חיה וקנין</t>
+        </is>
+      </c>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>bntshh@example.net</t>
+        </is>
+      </c>
+      <c r="K267" s="1" t="inlineStr">
+        <is>
+          <t>C:\Users\Fattal\Desktop\newTest\Fattal AutomationV1\Fattal_Tests\Screenshots\confirmation_FAIL_2025-04-17_13-25-29.png</t>
+        </is>
+      </c>
+      <c r="L267" s="1" t="inlineStr">
+        <is>
+          <t>C:\Users\Fattal\Desktop\newTest\Fattal AutomationV1\Fattal_Tests\logs\test_mobile_booking_anonymous_random_guest_details_2025-04-17_13-25-29.log</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>test_mobile_booking_anonymous_user</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Test Description</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>2025-04-17 13:26:27</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>47.30s</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>chrome</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>Windows</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>חן טסט</t>
+        </is>
+      </c>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>chenttedgui@gmail.com</t>
+        </is>
+      </c>
+      <c r="K268" s="1" t="inlineStr">
+        <is>
+          <t>C:\Users\Fattal\Desktop\newTest\Fattal AutomationV1\Fattal_Tests\Screenshots\confirmation_FAIL_2025-04-17_13-26-26.png</t>
+        </is>
+      </c>
+      <c r="L268" s="1" t="inlineStr">
+        <is>
+          <t>C:\Users\Fattal\Desktop\newTest\Fattal AutomationV1\Fattal_Tests\logs\test_mobile_booking_anonymous_user_2025-04-17_13-26-26.log</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>test_mobile_booking_anonymous_with_club_checkbox</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Test Description</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>2025-04-17 13:27:43</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>66.81s</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>chrome</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>Windows</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>חן טסט</t>
+        </is>
+      </c>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>chenttedgui@gmail.com</t>
+        </is>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>980023951</t>
+        </is>
+      </c>
+      <c r="K269" s="1" t="inlineStr">
+        <is>
+          <t>C:\Users\Fattal\Desktop\newTest\Fattal AutomationV1\Fattal_Tests\Screenshots\confirmation_PASS_2025-04-17_13-27-42.png</t>
+        </is>
+      </c>
+      <c r="L269" s="1" t="inlineStr">
+        <is>
+          <t>C:\Users\Fattal\Desktop\newTest\Fattal AutomationV1\Fattal_Tests\logs\test_mobile_booking_anonymous_with_club_checkbox_2025-04-17_13-27-42.log</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>test_mobile_booking_eilat_no_flight</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Test Description</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>2025-04-17 13:28:34</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>44.96s</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>chrome</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>Windows</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>חן טסט</t>
+        </is>
+      </c>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>chenttedgui@gmail.com</t>
+        </is>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>980066915</t>
+        </is>
+      </c>
+      <c r="K270" s="1" t="inlineStr">
+        <is>
+          <t>C:\Users\Fattal\Desktop\newTest\Fattal AutomationV1\Fattal_Tests\Screenshots\confirmation_PASS_2025-04-17_13-28-34.png</t>
+        </is>
+      </c>
+      <c r="L270" s="1" t="inlineStr">
+        <is>
+          <t>C:\Users\Fattal\Desktop\newTest\Fattal AutomationV1\Fattal_Tests\logs\test_mobile_booking_eilat_no_flight_2025-04-17_13-28-34.log</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>test_mobile_booking_eilat_with_flight</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Test Description</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>2025-04-17 13:30:05</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>82.99s</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>chrome</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>Windows</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>חן טסט</t>
+        </is>
+      </c>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>chenttedgui@gmail.com</t>
+        </is>
+      </c>
+      <c r="K271" s="1" t="inlineStr">
+        <is>
+          <t>C:\Users\Fattal\Desktop\newTest\Fattal AutomationV1\Fattal_Tests\Screenshots\confirmation_FAIL_2025-04-17_13-30-05.png</t>
+        </is>
+      </c>
+      <c r="L271" s="1" t="inlineStr">
+        <is>
+          <t>C:\Users\Fattal\Desktop\newTest\Fattal AutomationV1\Fattal_Tests\logs\test_mobile_booking_eilat_with_flight_2025-04-17_13-30-05.log</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>test_mobile_booking_with_club_login</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Test Description</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>2025-04-17 13:31:32</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>73.35s</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>chrome</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>Windows</t>
+        </is>
+      </c>
+      <c r="K272" s="1" t="inlineStr">
+        <is>
+          <t>C:\Users\Fattal\Desktop\newTest\Fattal AutomationV1\Fattal_Tests\Screenshots\confirmation_FAIL_2025-04-17_13-31-31.png</t>
+        </is>
+      </c>
+      <c r="L272" s="1" t="inlineStr">
+        <is>
+          <t>C:\Users\Fattal\Desktop\newTest\Fattal AutomationV1\Fattal_Tests\logs\test_mobile_booking_with_club_login_2025-04-17_13-31-31.log</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>test_mobile_booking_with_club_login_11night</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Test Description</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>2025-04-17 13:32:24</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>43.72s</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>chrome</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>Windows</t>
+        </is>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>980023952</t>
+        </is>
+      </c>
+      <c r="K273" s="1" t="inlineStr">
+        <is>
+          <t>C:\Users\Fattal\Desktop\newTest\Fattal AutomationV1\Fattal_Tests\Screenshots\confirmation_PASS_2025-04-17_13-32-24.png</t>
+        </is>
+      </c>
+      <c r="L273" s="1" t="inlineStr">
+        <is>
+          <t>C:\Users\Fattal\Desktop\newTest\Fattal AutomationV1\Fattal_Tests\logs\test_mobile_booking_with_club_login_11night_2025-04-17_13-32-24.log</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>test_mobile_booking_with_login_club_about_to_expire</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Test Description</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>2025-04-17 13:33:12</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>38.00s</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>chrome</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>Windows</t>
+        </is>
+      </c>
+      <c r="K274" s="1" t="inlineStr">
+        <is>
+          <t>C:\Users\Fattal\Desktop\newTest\Fattal AutomationV1\Fattal_Tests\Screenshots\confirmation_FAIL_2025-04-17_13-33-11.png</t>
+        </is>
+      </c>
+      <c r="L274" s="1" t="inlineStr">
+        <is>
+          <t>C:\Users\Fattal\Desktop\newTest\Fattal AutomationV1\Fattal_Tests\logs\test_mobile_booking_with_login_club_about_to_expire_2025-04-17_13-33-11.log</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>test_mobile_booking_with_login_club_renew</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Test Description</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>2025-04-17 13:34:06</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>45.22s</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>chrome</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>Windows</t>
+        </is>
+      </c>
+      <c r="K275" s="1" t="inlineStr">
+        <is>
+          <t>C:\Users\Fattal\Desktop\newTest\Fattal AutomationV1\Fattal_Tests\Screenshots\confirmation_FAIL_2025-04-17_13-34-05.png</t>
+        </is>
+      </c>
+      <c r="L275" s="1" t="inlineStr">
+        <is>
+          <t>C:\Users\Fattal\Desktop\newTest\Fattal AutomationV1\Fattal_Tests\logs\test_mobile_booking_with_login_club_renew_2025-04-17_13-34-05.log</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>test_mobile_booking_with_user_and_deals</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Test Description</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>2025-04-17 13:34:51</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>32.31s</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>chrome</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>Windows</t>
+        </is>
+      </c>
+      <c r="K276" s="1" t="inlineStr">
+        <is>
+          <t>C:\Users\Fattal\Desktop\newTest\Fattal AutomationV1\Fattal_Tests\Screenshots\confirmation_FAIL_2025-04-17_13-34-51.png</t>
+        </is>
+      </c>
+      <c r="L276" s="1" t="inlineStr">
+        <is>
+          <t>C:\Users\Fattal\Desktop\newTest\Fattal AutomationV1\Fattal_Tests\logs\test_mobile_booking_with_user_and_deals_2025-04-17_13-34-51.log</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>test_mobile_booking_anonymous_user</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Test Description</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>2025-04-17 13:52:24</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>42.67s</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>chrome</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>Windows</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>חן טסט</t>
+        </is>
+      </c>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>chenttedgui@gmail.com</t>
+        </is>
+      </c>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>980023953</t>
+        </is>
+      </c>
+      <c r="K277" s="1" t="inlineStr">
+        <is>
+          <t>C:\Users\Fattal\Desktop\newTest\Fattal AutomationV1\Fattal_Tests\Screenshots\confirmation_PASS_2025-04-17_13-52-23.png</t>
+        </is>
+      </c>
+      <c r="L277" s="1" t="inlineStr">
+        <is>
+          <t>C:\Users\Fattal\Desktop\newTest\Fattal AutomationV1\Fattal_Tests\logs\test_mobile_booking_anonymous_user_2025-04-17_13-52-23.log</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>test_mobile_booking_with_club_login</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Test Description</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>2025-04-17 13:53:49</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>75.68s</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>chrome</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>Windows</t>
+        </is>
+      </c>
+      <c r="K278" s="1" t="inlineStr">
+        <is>
+          <t>C:\Users\Fattal\Desktop\newTest\Fattal AutomationV1\Fattal_Tests\Screenshots\confirmation_FAIL_2025-04-17_13-53-48.png</t>
+        </is>
+      </c>
+      <c r="L278" s="1" t="inlineStr">
+        <is>
+          <t>C:\Users\Fattal\Desktop\newTest\Fattal AutomationV1\Fattal_Tests\logs\test_mobile_booking_with_club_login_2025-04-17_13-53-48.log</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>test_mobile_booking_with_club_login</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Test Description</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>2025-04-17 13:56:33</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>72.47s</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>chrome</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>Windows</t>
+        </is>
+      </c>
+      <c r="K279" s="1" t="inlineStr">
+        <is>
+          <t>C:\Users\Fattal\Desktop\newTest\Fattal AutomationV1\Fattal_Tests\Screenshots\confirmation_FAIL_2025-04-17_13-56-33.png</t>
+        </is>
+      </c>
+      <c r="L279" s="1" t="inlineStr">
+        <is>
+          <t>C:\Users\Fattal\Desktop\newTest\Fattal AutomationV1\Fattal_Tests\logs\test_mobile_booking_with_club_login_2025-04-17_13-56-33.log</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>test_mobile_booking_with_club_login</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Test Description</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>2025-04-17 13:57:55</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>77.30s</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>chrome</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>Windows</t>
+        </is>
+      </c>
+      <c r="K280" s="1" t="inlineStr">
+        <is>
+          <t>C:\Users\Fattal\Desktop\newTest\Fattal AutomationV1\Fattal_Tests\Screenshots\confirmation_FAIL_2025-04-17_13-57-54.png</t>
+        </is>
+      </c>
+      <c r="L280" s="1" t="inlineStr">
+        <is>
+          <t>C:\Users\Fattal\Desktop\newTest\Fattal AutomationV1\Fattal_Tests\logs\test_mobile_booking_with_club_login_2025-04-17_13-57-54.log</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>test_mobile_booking_with_club_login</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Test Description</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>2025-04-17 13:58:52</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>46.24s</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>chrome</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>Windows</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr"/>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>980023954</t>
+        </is>
+      </c>
+      <c r="K281" s="1" t="inlineStr">
+        <is>
+          <t>C:\Users\Fattal\Desktop\newTest\Fattal AutomationV1\Fattal_Tests\Screenshots\confirmation_PASS_2025-04-17_13-58-52.png</t>
+        </is>
+      </c>
+      <c r="L281" s="1" t="inlineStr">
+        <is>
+          <t>C:\Users\Fattal\Desktop\newTest\Fattal AutomationV1\Fattal_Tests\logs\test_mobile_booking_with_club_login_2025-04-17_13-58-52.log</t>
         </is>
       </c>
     </row>
@@ -13932,6 +14724,36 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L265" r:id="rId526"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="K266" r:id="rId527"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L266" r:id="rId528"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="K267" r:id="rId529"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L267" r:id="rId530"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="K268" r:id="rId531"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L268" r:id="rId532"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="K269" r:id="rId533"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L269" r:id="rId534"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="K270" r:id="rId535"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L270" r:id="rId536"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="K271" r:id="rId537"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L271" r:id="rId538"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="K272" r:id="rId539"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L272" r:id="rId540"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="K273" r:id="rId541"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L273" r:id="rId542"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="K274" r:id="rId543"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L274" r:id="rId544"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="K275" r:id="rId545"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L275" r:id="rId546"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="K276" r:id="rId547"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L276" r:id="rId548"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="K277" r:id="rId549"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L277" r:id="rId550"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="K278" r:id="rId551"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L278" r:id="rId552"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="K279" r:id="rId553"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L279" r:id="rId554"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="K280" r:id="rId555"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L280" r:id="rId556"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="K281" r:id="rId557"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L281" r:id="rId558"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/TestResults.xlsx
+++ b/TestResults.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
     <col width="12" customWidth="1" min="8" max="8"/>
     <col width="12" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
-    <col width="26" customWidth="1" min="11" max="11"/>
+    <col width="28" customWidth="1" min="11" max="11"/>
     <col width="20" customWidth="1" min="12" max="12"/>
     <col width="23" customWidth="1" min="13" max="13"/>
     <col width="28" customWidth="1" min="14" max="14"/>
@@ -543,12 +543,12 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>980025538</t>
+          <t>980025773</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>032345589</t>
+          <t>029400124</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -563,12 +563,12 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>2025-08-05 08:39:50</t>
+          <t>2025-08-20 16:32:03</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>58.82s</t>
+          <t>87.11s</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -584,7 +584,7 @@
       <c r="J2" s="1" t="inlineStr"/>
       <c r="K2" s="1" t="inlineStr">
         <is>
-          <t>chenttedgui@gmail.com</t>
+          <t>restestfattal@gmail.com</t>
         </is>
       </c>
       <c r="L2" s="2" t="inlineStr">
@@ -609,227 +609,147 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>test_mobile_booking_anonymous_join_fattal_and_friends</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr"/>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>751925645</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr"/>
+      <c r="C3" s="3" t="inlineStr"/>
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>בדיקת השלמת הזמנה משתמש אנונימי + הצטפרות למועדון</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>PASSED</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t>2025-08-05 08:41:48</t>
-        </is>
-      </c>
-      <c r="G3" s="1" t="inlineStr">
-        <is>
-          <t>111.39s</t>
-        </is>
-      </c>
-      <c r="H3" s="1" t="inlineStr">
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>2025-08-20 16:33:11</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>60.03s</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="inlineStr">
         <is>
           <t>Chrome</t>
         </is>
       </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="I3" s="3" t="inlineStr">
         <is>
           <t>windows</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
-        <is>
-          <t>חן טסט</t>
-        </is>
-      </c>
-      <c r="K3" s="1" t="inlineStr">
-        <is>
-          <t>chenttedgui@gmail.com</t>
-        </is>
-      </c>
-      <c r="L3" s="2" t="inlineStr">
-        <is>
-          <t>📷 Screenshot</t>
-        </is>
-      </c>
-      <c r="M3" s="2" t="inlineStr">
-        <is>
-          <t>📷 Screenshot</t>
-        </is>
-      </c>
-      <c r="N3" s="2" t="inlineStr">
-        <is>
-          <t>📷 Screenshot</t>
-        </is>
-      </c>
-      <c r="O3" s="2" t="inlineStr">
+      <c r="J3" s="3" t="inlineStr"/>
+      <c r="K3" s="3" t="inlineStr"/>
+      <c r="L3" s="3" t="inlineStr"/>
+      <c r="M3" s="3" t="inlineStr"/>
+      <c r="N3" s="3" t="inlineStr"/>
+      <c r="O3" s="4" t="inlineStr">
         <is>
           <t>🧾 Log File</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>test_mobile_booking_anonymous_region_eilat</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>980099610</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>688389246</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr"/>
+      <c r="C4" s="3" t="inlineStr"/>
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>בדיקת השלמת הזמנה משתמש אנונימי דרך אזור מלונות אילת</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>PASSED</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>2025-08-05 08:43:47</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>113.14s</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>2025-08-20 16:34:59</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>100.13s</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="inlineStr">
         <is>
           <t>Chrome</t>
         </is>
       </c>
-      <c r="I4" s="1" t="inlineStr">
+      <c r="I4" s="3" t="inlineStr">
         <is>
           <t>windows</t>
         </is>
       </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>חן טסט</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>chenttedgui@gmail.com</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>📷 Screenshot</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>📷 Screenshot</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>📷 Screenshot</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
+      <c r="J4" s="3" t="inlineStr"/>
+      <c r="K4" s="3" t="inlineStr"/>
+      <c r="L4" s="3" t="inlineStr"/>
+      <c r="M4" s="3" t="inlineStr"/>
+      <c r="N4" s="3" t="inlineStr"/>
+      <c r="O4" s="4" t="inlineStr">
         <is>
           <t>🧾 Log File</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>test_mobile_booking_anonymous_user</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>980025540</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>191244888</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr"/>
+      <c r="C5" s="3" t="inlineStr"/>
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t>בדיקת השלמת הזמנה משתמש אנונימי</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>PASSED</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="inlineStr">
-        <is>
-          <t>2025-08-05 08:44:54</t>
-        </is>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>57.92s</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr">
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>2025-08-20 16:36:07</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>60.91s</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
         <is>
           <t>Chrome</t>
         </is>
       </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="I5" s="3" t="inlineStr">
         <is>
           <t>windows</t>
         </is>
       </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>חן טסט</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr">
-        <is>
-          <t>chenttedgui@gmail.com</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>📷 Screenshot</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>📷 Screenshot</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>📷 Screenshot</t>
-        </is>
-      </c>
-      <c r="O5" s="2" t="inlineStr">
+      <c r="J5" s="3" t="inlineStr"/>
+      <c r="K5" s="3" t="inlineStr"/>
+      <c r="L5" s="3" t="inlineStr"/>
+      <c r="M5" s="3" t="inlineStr"/>
+      <c r="N5" s="3" t="inlineStr"/>
+      <c r="O5" s="4" t="inlineStr">
         <is>
           <t>🧾 Log File</t>
         </is>
@@ -855,12 +775,12 @@
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>2025-08-05 08:45:46</t>
+          <t>2025-08-20 16:37:01</t>
         </is>
       </c>
       <c r="G6" s="3" t="inlineStr">
         <is>
-          <t>45.94s</t>
+          <t>47.00s</t>
         </is>
       </c>
       <c r="H6" s="3" t="inlineStr">
@@ -892,12 +812,12 @@
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>980025541</t>
+          <t>980025774</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>148418866</t>
+          <t>315069104</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
@@ -912,12 +832,12 @@
       </c>
       <c r="F7" s="1" t="inlineStr">
         <is>
-          <t>2025-08-05 08:46:56</t>
+          <t>2025-08-20 16:38:23</t>
         </is>
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
-          <t>59.46s</t>
+          <t>73.06s</t>
         </is>
       </c>
       <c r="H7" s="1" t="inlineStr">
@@ -937,7 +857,7 @@
       </c>
       <c r="K7" s="1" t="inlineStr">
         <is>
-          <t>chenttedgui@gmail.com</t>
+          <t>restestfattal@gmail.com</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -962,61 +882,77 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>test_mobile_booking_club_member_11night</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr"/>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>980025775</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>999425861</t>
         </is>
       </c>
-      <c r="D8" s="3" t="inlineStr">
+      <c r="D8" s="1" t="inlineStr">
         <is>
           <t>בדיקת השלמת הזמנה משתמש מחובר חבר מועדון פעיל + הטבת לילה 11 מתנה</t>
         </is>
       </c>
-      <c r="E8" s="3" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="F8" s="3" t="inlineStr">
-        <is>
-          <t>2025-08-05 08:47:30</t>
-        </is>
-      </c>
-      <c r="G8" s="3" t="inlineStr">
-        <is>
-          <t>28.73s</t>
-        </is>
-      </c>
-      <c r="H8" s="3" t="inlineStr">
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-20 16:39:54</t>
+        </is>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>83.21s</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr">
         <is>
           <t>Chrome</t>
         </is>
       </c>
-      <c r="I8" s="3" t="inlineStr">
+      <c r="I8" s="1" t="inlineStr">
         <is>
           <t>windows</t>
         </is>
       </c>
-      <c r="J8" s="3" t="inlineStr">
+      <c r="J8" s="1" t="inlineStr">
         <is>
           <t>Club User</t>
         </is>
       </c>
-      <c r="K8" s="3" t="inlineStr">
-        <is>
-          <t>chenttedgui@gmail.com</t>
-        </is>
-      </c>
-      <c r="L8" s="3" t="inlineStr"/>
-      <c r="M8" s="3" t="inlineStr"/>
-      <c r="N8" s="3" t="inlineStr"/>
-      <c r="O8" s="4" t="inlineStr">
+      <c r="K8" s="1" t="inlineStr">
+        <is>
+          <t>restestfattal@gmail.com</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>📷 Screenshot</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>📷 Screenshot</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>📷 Screenshot</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
         <is>
           <t>🧾 Log File</t>
         </is>
@@ -1028,11 +964,7 @@
           <t>test_mobile_booking_club_member_club_renew_about_to_expire</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>980025542</t>
-        </is>
-      </c>
+      <c r="B9" s="1" t="inlineStr"/>
       <c r="C9" s="1" t="inlineStr">
         <is>
           <t>436917587</t>
@@ -1050,12 +982,12 @@
       </c>
       <c r="F9" s="1" t="inlineStr">
         <is>
-          <t>2025-08-05 08:49:06</t>
+          <t>2025-08-20 16:41:35</t>
         </is>
       </c>
       <c r="G9" s="1" t="inlineStr">
         <is>
-          <t>85.07s</t>
+          <t>94.67s</t>
         </is>
       </c>
       <c r="H9" s="1" t="inlineStr">
@@ -1075,7 +1007,7 @@
       </c>
       <c r="K9" s="1" t="inlineStr">
         <is>
-          <t>chenttedgui@gmail.com</t>
+          <t>restestfattal@gmail.com</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1100,150 +1032,130 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>test_mobile_booking_club_member_club_renew_expired</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr"/>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="B10" s="3" t="inlineStr"/>
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t>999660160</t>
         </is>
       </c>
-      <c r="D10" s="1" t="inlineStr">
+      <c r="D10" s="3" t="inlineStr">
         <is>
           <t>בדיקת השלמת הזמנה משתמש מחובר מועדון בסטטוס פג תוקף</t>
         </is>
       </c>
-      <c r="E10" s="1" t="inlineStr">
-        <is>
-          <t>PASSED</t>
-        </is>
-      </c>
-      <c r="F10" s="1" t="inlineStr">
-        <is>
-          <t>2025-08-05 08:51:06</t>
-        </is>
-      </c>
-      <c r="G10" s="1" t="inlineStr">
-        <is>
-          <t>113.96s</t>
-        </is>
-      </c>
-      <c r="H10" s="1" t="inlineStr">
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>2025-08-20 16:42:59</t>
+        </is>
+      </c>
+      <c r="G10" s="3" t="inlineStr">
+        <is>
+          <t>73.01s</t>
+        </is>
+      </c>
+      <c r="H10" s="3" t="inlineStr">
         <is>
           <t>Chrome</t>
         </is>
       </c>
-      <c r="I10" s="1" t="inlineStr">
+      <c r="I10" s="3" t="inlineStr">
         <is>
           <t>windows</t>
         </is>
       </c>
-      <c r="J10" s="1" t="inlineStr">
+      <c r="J10" s="3" t="inlineStr">
         <is>
           <t>Club User</t>
         </is>
       </c>
-      <c r="K10" s="1" t="inlineStr">
-        <is>
-          <t>chenttedgui@gmail.com</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>📷 Screenshot</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>📷 Screenshot</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>📷 Screenshot</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
+      <c r="K10" s="3" t="inlineStr">
+        <is>
+          <t>restestfattal@gmail.com</t>
+        </is>
+      </c>
+      <c r="L10" s="3" t="inlineStr"/>
+      <c r="M10" s="3" t="inlineStr"/>
+      <c r="N10" s="3" t="inlineStr"/>
+      <c r="O10" s="4" t="inlineStr">
         <is>
           <t>🧾 Log File</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>test_mobile_booking_club_member_deals</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>980080523</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="B11" s="3" t="inlineStr"/>
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t>999318330</t>
         </is>
       </c>
-      <c r="D11" s="1" t="inlineStr">
+      <c r="D11" s="3" t="inlineStr">
         <is>
           <t>בדיקת השלמת הזמנה משתמש מחובר עמוד דילים</t>
         </is>
       </c>
-      <c r="E11" s="1" t="inlineStr">
-        <is>
-          <t>PASSED</t>
-        </is>
-      </c>
-      <c r="F11" s="1" t="inlineStr">
-        <is>
-          <t>2025-08-05 08:52:05</t>
-        </is>
-      </c>
-      <c r="G11" s="1" t="inlineStr">
-        <is>
-          <t>49.44s</t>
-        </is>
-      </c>
-      <c r="H11" s="1" t="inlineStr">
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>2025-08-20 16:44:14</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>67.79s</t>
+        </is>
+      </c>
+      <c r="H11" s="3" t="inlineStr">
         <is>
           <t>Chrome</t>
         </is>
       </c>
-      <c r="I11" s="1" t="inlineStr">
+      <c r="I11" s="3" t="inlineStr">
         <is>
           <t>windows</t>
         </is>
       </c>
-      <c r="J11" s="1" t="inlineStr">
+      <c r="J11" s="3" t="inlineStr">
         <is>
           <t>Club User</t>
         </is>
       </c>
-      <c r="K11" s="1" t="inlineStr">
-        <is>
-          <t>chenttedgui@gmail.com</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>📷 Screenshot</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>📷 Screenshot</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>📷 Screenshot</t>
-        </is>
-      </c>
-      <c r="O11" s="2" t="inlineStr">
+      <c r="K11" s="3" t="inlineStr">
+        <is>
+          <t>restestfattal@gmail.com</t>
+        </is>
+      </c>
+      <c r="L11" s="4" t="inlineStr">
+        <is>
+          <t>📷 Screenshot</t>
+        </is>
+      </c>
+      <c r="M11" s="4" t="inlineStr">
+        <is>
+          <t>📷 Screenshot</t>
+        </is>
+      </c>
+      <c r="N11" s="3" t="inlineStr"/>
+      <c r="O11" s="4" t="inlineStr">
         <is>
           <t>🧾 Log File</t>
         </is>
@@ -1273,12 +1185,12 @@
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t>2025-08-05 08:54:26</t>
+          <t>2025-08-20 16:46:10</t>
         </is>
       </c>
       <c r="G12" s="3" t="inlineStr">
         <is>
-          <t>135.14s</t>
+          <t>109.12s</t>
         </is>
       </c>
       <c r="H12" s="3" t="inlineStr">
@@ -1298,14 +1210,10 @@
       </c>
       <c r="K12" s="3" t="inlineStr">
         <is>
-          <t>chenttedgui@gmail.com</t>
-        </is>
-      </c>
-      <c r="L12" s="4" t="inlineStr">
-        <is>
-          <t>📷 Screenshot</t>
-        </is>
-      </c>
+          <t>restestfattal@gmail.com</t>
+        </is>
+      </c>
+      <c r="L12" s="3" t="inlineStr"/>
       <c r="M12" s="3" t="inlineStr"/>
       <c r="N12" s="3" t="inlineStr"/>
       <c r="O12" s="4" t="inlineStr">
@@ -1315,126 +1223,126 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>test_mobile_booking_fattal_gift1</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>980025544</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t>540891777</t>
-        </is>
-      </c>
-      <c r="D13" s="1" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr"/>
+      <c r="C13" s="3" t="inlineStr"/>
+      <c r="D13" s="3" t="inlineStr">
         <is>
           <t>בדיקת השלמת הזמנה משתמש אנונימי +3 קופונים של פתאל גיפטס באילת</t>
         </is>
       </c>
-      <c r="E13" s="1" t="inlineStr">
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>2025-08-20 16:47:12</t>
+        </is>
+      </c>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>54.96s</t>
+        </is>
+      </c>
+      <c r="H13" s="3" t="inlineStr">
+        <is>
+          <t>Chrome</t>
+        </is>
+      </c>
+      <c r="I13" s="3" t="inlineStr">
+        <is>
+          <t>windows</t>
+        </is>
+      </c>
+      <c r="J13" s="3" t="inlineStr"/>
+      <c r="K13" s="3" t="inlineStr"/>
+      <c r="L13" s="3" t="inlineStr"/>
+      <c r="M13" s="3" t="inlineStr"/>
+      <c r="N13" s="3" t="inlineStr"/>
+      <c r="O13" s="4" t="inlineStr">
+        <is>
+          <t>🧾 Log File</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>test_mobile_booking_fattal_gift3</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>980025777</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>832881148</t>
+        </is>
+      </c>
+      <c r="D14" s="1" t="inlineStr">
+        <is>
+          <t>בדיקת השלמת הזמנה משתמש אנונימי + קופון 1 של פתאל גיפטס באילת</t>
+        </is>
+      </c>
+      <c r="E14" s="1" t="inlineStr">
         <is>
           <t>PASSED</t>
         </is>
       </c>
-      <c r="F13" s="1" t="inlineStr">
-        <is>
-          <t>2025-08-05 08:56:00</t>
-        </is>
-      </c>
-      <c r="G13" s="1" t="inlineStr">
-        <is>
-          <t>84.01s</t>
-        </is>
-      </c>
-      <c r="H13" s="1" t="inlineStr">
+      <c r="F14" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-20 16:49:19</t>
+        </is>
+      </c>
+      <c r="G14" s="1" t="inlineStr">
+        <is>
+          <t>119.50s</t>
+        </is>
+      </c>
+      <c r="H14" s="1" t="inlineStr">
         <is>
           <t>Chrome</t>
         </is>
       </c>
-      <c r="I13" s="1" t="inlineStr">
+      <c r="I14" s="1" t="inlineStr">
         <is>
           <t>windows</t>
         </is>
       </c>
-      <c r="J13" s="1" t="inlineStr">
+      <c r="J14" s="1" t="inlineStr">
         <is>
           <t>חן טסט</t>
         </is>
       </c>
-      <c r="K13" s="1" t="inlineStr">
-        <is>
-          <t>chenttedgui@gmail.com</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>📷 Screenshot</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>📷 Screenshot</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>📷 Screenshot</t>
-        </is>
-      </c>
-      <c r="O13" s="2" t="inlineStr">
-        <is>
-          <t>🧾 Log File</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="inlineStr">
-        <is>
-          <t>test_mobile_booking_fattal_gift3</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr"/>
-      <c r="C14" s="3" t="inlineStr"/>
-      <c r="D14" s="3" t="inlineStr">
-        <is>
-          <t>בדיקת השלמת הזמנה משתמש אנונימי + קופון 1 של פתאל גיפטס באילת</t>
-        </is>
-      </c>
-      <c r="E14" s="3" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="F14" s="3" t="inlineStr">
-        <is>
-          <t>2025-08-05 08:56:53</t>
-        </is>
-      </c>
-      <c r="G14" s="3" t="inlineStr">
-        <is>
-          <t>45.80s</t>
-        </is>
-      </c>
-      <c r="H14" s="3" t="inlineStr">
-        <is>
-          <t>Chrome</t>
-        </is>
-      </c>
-      <c r="I14" s="3" t="inlineStr">
-        <is>
-          <t>windows</t>
-        </is>
-      </c>
-      <c r="J14" s="3" t="inlineStr"/>
-      <c r="K14" s="3" t="inlineStr"/>
-      <c r="L14" s="3" t="inlineStr"/>
-      <c r="M14" s="3" t="inlineStr"/>
-      <c r="N14" s="3" t="inlineStr"/>
-      <c r="O14" s="4" t="inlineStr">
+      <c r="K14" s="1" t="inlineStr">
+        <is>
+          <t>restestfattal@gmail.com</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>📷 Screenshot</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>📷 Screenshot</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>📷 Screenshot</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
         <is>
           <t>🧾 Log File</t>
         </is>
@@ -1448,7 +1356,7 @@
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>980025545</t>
+          <t>980025778</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
@@ -1468,12 +1376,12 @@
       </c>
       <c r="F15" s="1" t="inlineStr">
         <is>
-          <t>2025-08-05 08:58:05</t>
+          <t>2025-08-20 16:50:49</t>
         </is>
       </c>
       <c r="G15" s="1" t="inlineStr">
         <is>
-          <t>61.23s</t>
+          <t>83.20s</t>
         </is>
       </c>
       <c r="H15" s="1" t="inlineStr">
@@ -1493,7 +1401,7 @@
       </c>
       <c r="K15" s="1" t="inlineStr">
         <is>
-          <t>chenttedgui@gmail.com</t>
+          <t>restestfattal@gmail.com</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
@@ -1541,12 +1449,12 @@
       </c>
       <c r="F16" s="1" t="inlineStr">
         <is>
-          <t>2025-08-05 08:59:35</t>
+          <t>2025-08-20 16:52:36</t>
         </is>
       </c>
       <c r="G16" s="1" t="inlineStr">
         <is>
-          <t>84.11s</t>
+          <t>95.88s</t>
         </is>
       </c>
       <c r="H16" s="1" t="inlineStr">
@@ -1566,7 +1474,7 @@
       </c>
       <c r="K16" s="1" t="inlineStr">
         <is>
-          <t>chenttedgui@gmail.com</t>
+          <t>restestfattal@gmail.com</t>
         </is>
       </c>
       <c r="L16" s="1" t="inlineStr"/>
@@ -1589,22 +1497,18 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>test_desktop_anonymous_booking</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>980025546</t>
-        </is>
-      </c>
+          <t>test_mobile_join_fattal_and_friends_form</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="inlineStr"/>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>603312588</t>
+          <t>479697120</t>
         </is>
       </c>
       <c r="D17" s="1" t="inlineStr">
         <is>
-          <t>בדיקת השלמת הזמנה מתשמש אנונימי</t>
+          <t>הצטפרות למועדון דרך טופס</t>
         </is>
       </c>
       <c r="E17" s="1" t="inlineStr">
@@ -1614,44 +1518,28 @@
       </c>
       <c r="F17" s="1" t="inlineStr">
         <is>
-          <t>2025-08-05 09:00:04</t>
+          <t>2025-08-20 16:54:13</t>
         </is>
       </c>
       <c r="G17" s="1" t="inlineStr">
         <is>
-          <t>82.12s</t>
+          <t>90.20s</t>
         </is>
       </c>
       <c r="H17" s="1" t="inlineStr">
         <is>
-          <t>chrome</t>
+          <t>Chrome</t>
         </is>
       </c>
       <c r="I17" s="1" t="inlineStr">
         <is>
-          <t>Windows</t>
-        </is>
-      </c>
-      <c r="J17" s="1" t="inlineStr">
-        <is>
-          <t>חן טסט</t>
-        </is>
-      </c>
-      <c r="K17" s="1" t="inlineStr">
-        <is>
-          <t>chenttedgui@gmail.com</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>📷 Screenshot</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>📷 Screenshot</t>
-        </is>
-      </c>
+          <t>windows</t>
+        </is>
+      </c>
+      <c r="J17" s="1" t="inlineStr"/>
+      <c r="K17" s="1" t="inlineStr"/>
+      <c r="L17" s="1" t="inlineStr"/>
+      <c r="M17" s="1" t="inlineStr"/>
       <c r="N17" s="2" t="inlineStr">
         <is>
           <t>📷 Screenshot</t>
@@ -1666,18 +1554,18 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>test_mobile_join_fattal_and_friends_form</t>
+          <t>test_mobile_booking_anonymous_join_fattal_and_friends</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr"/>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>563183441</t>
+          <t>506063908</t>
         </is>
       </c>
       <c r="D18" s="1" t="inlineStr">
         <is>
-          <t>הצטפרות למועדון דרך טופס</t>
+          <t>בדיקת השלמת הזמנה משתמש אנונימי + הצטפרות למועדון</t>
         </is>
       </c>
       <c r="E18" s="1" t="inlineStr">
@@ -1687,12 +1575,12 @@
       </c>
       <c r="F18" s="1" t="inlineStr">
         <is>
-          <t>2025-08-05 09:01:02</t>
+          <t>2025-08-20 16:56:52</t>
         </is>
       </c>
       <c r="G18" s="1" t="inlineStr">
         <is>
-          <t>76.84s</t>
+          <t>121.77s</t>
         </is>
       </c>
       <c r="H18" s="1" t="inlineStr">
@@ -1705,10 +1593,26 @@
           <t>windows</t>
         </is>
       </c>
-      <c r="J18" s="1" t="inlineStr"/>
-      <c r="K18" s="1" t="inlineStr"/>
-      <c r="L18" s="1" t="inlineStr"/>
-      <c r="M18" s="1" t="inlineStr"/>
+      <c r="J18" s="1" t="inlineStr">
+        <is>
+          <t>חן טסט</t>
+        </is>
+      </c>
+      <c r="K18" s="1" t="inlineStr">
+        <is>
+          <t>restestfattal@gmail.com</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>📷 Screenshot</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>📷 Screenshot</t>
+        </is>
+      </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
           <t>📷 Screenshot</t>
@@ -1723,22 +1627,22 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>test_desktop_booking_anonymous_join_fattal_and_friends</t>
+          <t>test_mobile_booking_anonymous_region_eilat</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>980025547</t>
+          <t>980071550</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>840648588</t>
+          <t>768688970</t>
         </is>
       </c>
       <c r="D19" s="1" t="inlineStr">
         <is>
-          <t>בידקת השלמת הזמנה משתמש אנונימי + הצטפרות למועדון</t>
+          <t>בדיקת השלמת הזמנה משתמש אנונימי דרך אזור מלונות אילת</t>
         </is>
       </c>
       <c r="E19" s="1" t="inlineStr">
@@ -1748,22 +1652,22 @@
       </c>
       <c r="F19" s="1" t="inlineStr">
         <is>
-          <t>2025-08-05 09:01:49</t>
+          <t>2025-08-20 16:59:10</t>
         </is>
       </c>
       <c r="G19" s="1" t="inlineStr">
         <is>
-          <t>102.02s</t>
+          <t>130.74s</t>
         </is>
       </c>
       <c r="H19" s="1" t="inlineStr">
         <is>
-          <t>chrome</t>
+          <t>Chrome</t>
         </is>
       </c>
       <c r="I19" s="1" t="inlineStr">
         <is>
-          <t>Windows</t>
+          <t>windows</t>
         </is>
       </c>
       <c r="J19" s="1" t="inlineStr">
@@ -1773,7 +1677,7 @@
       </c>
       <c r="K19" s="1" t="inlineStr">
         <is>
-          <t>chenttedgui@gmail.com</t>
+          <t>restestfattal@gmail.com</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
@@ -1798,53 +1702,77 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="inlineStr">
-        <is>
-          <t>test_desktop_booking_anonymous_region_eilat</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr"/>
-      <c r="C20" s="3" t="inlineStr"/>
-      <c r="D20" s="3" t="inlineStr">
-        <is>
-          <t>בדיקת השלמת הזמנה משתמש אנונימי דרך אזור מלונות אילת</t>
-        </is>
-      </c>
-      <c r="E20" s="3" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="F20" s="3" t="inlineStr">
-        <is>
-          <t>2025-08-05 09:03:03</t>
-        </is>
-      </c>
-      <c r="G20" s="3" t="inlineStr">
-        <is>
-          <t>71.63s</t>
-        </is>
-      </c>
-      <c r="H20" s="3" t="inlineStr">
-        <is>
-          <t>chrome</t>
-        </is>
-      </c>
-      <c r="I20" s="3" t="inlineStr">
-        <is>
-          <t>Windows</t>
-        </is>
-      </c>
-      <c r="J20" s="3" t="inlineStr"/>
-      <c r="K20" s="3" t="inlineStr"/>
-      <c r="L20" s="3" t="inlineStr"/>
-      <c r="M20" s="3" t="inlineStr"/>
-      <c r="N20" s="4" t="inlineStr">
-        <is>
-          <t>📷 Screenshot</t>
-        </is>
-      </c>
-      <c r="O20" s="4" t="inlineStr">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>test_mobile_booking_anonymous_user</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>980025780</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>428197487</t>
+        </is>
+      </c>
+      <c r="D20" s="1" t="inlineStr">
+        <is>
+          <t>בדיקת השלמת הזמנה משתמש אנונימי</t>
+        </is>
+      </c>
+      <c r="E20" s="1" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="F20" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-20 17:00:31</t>
+        </is>
+      </c>
+      <c r="G20" s="1" t="inlineStr">
+        <is>
+          <t>73.92s</t>
+        </is>
+      </c>
+      <c r="H20" s="1" t="inlineStr">
+        <is>
+          <t>Chrome</t>
+        </is>
+      </c>
+      <c r="I20" s="1" t="inlineStr">
+        <is>
+          <t>windows</t>
+        </is>
+      </c>
+      <c r="J20" s="1" t="inlineStr">
+        <is>
+          <t>חן טסט</t>
+        </is>
+      </c>
+      <c r="K20" s="1" t="inlineStr">
+        <is>
+          <t>restestfattal@gmail.com</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>📷 Screenshot</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>📷 Screenshot</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>📷 Screenshot</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
         <is>
           <t>🧾 Log File</t>
         </is>
@@ -1853,22 +1781,22 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>test_desktop_booking_club_member</t>
+          <t>test_mobile_booking_anonymous_user_login_at_checkout</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>980025548</t>
+          <t>980025781</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>669587149</t>
+          <t>999318330</t>
         </is>
       </c>
       <c r="D21" s="1" t="inlineStr">
         <is>
-          <t>בדיקת השלמת הזמנה משתמש מחובר חבר מועדון פעיל</t>
+          <t>בדיקת השלמת הזמנה משתמש אנונימי וחיבור במסך תשלום</t>
         </is>
       </c>
       <c r="E21" s="1" t="inlineStr">
@@ -1878,32 +1806,32 @@
       </c>
       <c r="F21" s="1" t="inlineStr">
         <is>
-          <t>2025-08-05 09:04:40</t>
+          <t>2025-08-20 17:02:02</t>
         </is>
       </c>
       <c r="G21" s="1" t="inlineStr">
         <is>
-          <t>95.27s</t>
+          <t>84.40s</t>
         </is>
       </c>
       <c r="H21" s="1" t="inlineStr">
         <is>
-          <t>chrome</t>
+          <t>Chrome</t>
         </is>
       </c>
       <c r="I21" s="1" t="inlineStr">
         <is>
-          <t>Windows</t>
+          <t>windows</t>
         </is>
       </c>
       <c r="J21" s="1" t="inlineStr">
         <is>
-          <t>חן טסט</t>
+          <t>Club User</t>
         </is>
       </c>
       <c r="K21" s="1" t="inlineStr">
         <is>
-          <t>chenttedgui@gmail.com</t>
+          <t>restestfattal@gmail.com</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
@@ -1930,22 +1858,18 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>test_mobile_booking_anonymous_user_login_at_checkout</t>
-        </is>
-      </c>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>980025549</t>
-        </is>
-      </c>
+          <t>test_mobile_booking_club_member_club_renew_expired</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr"/>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>999318330</t>
+          <t>999660160</t>
         </is>
       </c>
       <c r="D22" s="1" t="inlineStr">
         <is>
-          <t>בדיקת השלמת הזמנה משתמש אנונימי וחיבור במסך תשלום</t>
+          <t>בדיקת השלמת הזמנה משתמש מחובר מועדון בסטטוס פג תוקף</t>
         </is>
       </c>
       <c r="E22" s="1" t="inlineStr">
@@ -1955,12 +1879,12 @@
       </c>
       <c r="F22" s="1" t="inlineStr">
         <is>
-          <t>2025-08-05 09:04:51</t>
+          <t>2025-08-20 17:04:19</t>
         </is>
       </c>
       <c r="G22" s="1" t="inlineStr">
         <is>
-          <t>60.96s</t>
+          <t>129.29s</t>
         </is>
       </c>
       <c r="H22" s="1" t="inlineStr">
@@ -1980,7 +1904,7 @@
       </c>
       <c r="K22" s="1" t="inlineStr">
         <is>
-          <t>chenttedgui@gmail.com</t>
+          <t>restestfattal@gmail.com</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
@@ -2007,18 +1931,18 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>test_mobile_booking_club_member_11night</t>
+          <t>test_mobile_booking_club_member_deals</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr"/>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>999425861</t>
+          <t>999318330</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
         <is>
-          <t>בדיקת השלמת הזמנה משתמש מחובר חבר מועדון פעיל + הטבת לילה 11 מתנה</t>
+          <t>בדיקת השלמת הזמנה משתמש מחובר עמוד דילים</t>
         </is>
       </c>
       <c r="E23" s="3" t="inlineStr">
@@ -2028,12 +1952,12 @@
       </c>
       <c r="F23" s="3" t="inlineStr">
         <is>
-          <t>2025-08-05 09:05:25</t>
+          <t>2025-08-20 17:05:22</t>
         </is>
       </c>
       <c r="G23" s="3" t="inlineStr">
         <is>
-          <t>28.22s</t>
+          <t>56.19s</t>
         </is>
       </c>
       <c r="H23" s="3" t="inlineStr">
@@ -2053,10 +1977,14 @@
       </c>
       <c r="K23" s="3" t="inlineStr">
         <is>
-          <t>chenttedgui@gmail.com</t>
-        </is>
-      </c>
-      <c r="L23" s="3" t="inlineStr"/>
+          <t>restestfattal@gmail.com</t>
+        </is>
+      </c>
+      <c r="L23" s="4" t="inlineStr">
+        <is>
+          <t>📷 Screenshot</t>
+        </is>
+      </c>
       <c r="M23" s="3" t="inlineStr"/>
       <c r="N23" s="3" t="inlineStr"/>
       <c r="O23" s="4" t="inlineStr">
@@ -2068,11 +1996,15 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>test_desktop_booking_club_member_eilat_with_flight</t>
+          <t>test_mobile_booking_club_member_eilat_with_flight</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr"/>
-      <c r="C24" s="3" t="inlineStr"/>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>999318330</t>
+        </is>
+      </c>
       <c r="D24" s="3" t="inlineStr">
         <is>
           <t>בדיקת השלמת הזמנה משתמש מחובר עם מועדון פעיל + טיסות</t>
@@ -2085,41 +2017,37 @@
       </c>
       <c r="F24" s="3" t="inlineStr">
         <is>
-          <t>2025-08-05 09:06:34</t>
+          <t>2025-08-20 17:07:20</t>
         </is>
       </c>
       <c r="G24" s="3" t="inlineStr">
         <is>
-          <t>111.20s</t>
+          <t>111.17s</t>
         </is>
       </c>
       <c r="H24" s="3" t="inlineStr">
         <is>
-          <t>chrome</t>
+          <t>Chrome</t>
         </is>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>Windows</t>
+          <t>windows</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
         <is>
-          <t>חן טסט</t>
+          <t>Club User</t>
         </is>
       </c>
       <c r="K24" s="3" t="inlineStr">
         <is>
-          <t>chenttedgui@gmail.com</t>
+          <t>restestfattal@gmail.com</t>
         </is>
       </c>
       <c r="L24" s="3" t="inlineStr"/>
       <c r="M24" s="3" t="inlineStr"/>
-      <c r="N24" s="4" t="inlineStr">
-        <is>
-          <t>📷 Screenshot</t>
-        </is>
-      </c>
+      <c r="N24" s="3" t="inlineStr"/>
       <c r="O24" s="4" t="inlineStr">
         <is>
           <t>🧾 Log File</t>
@@ -2127,61 +2055,77 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="inlineStr">
-        <is>
-          <t>test_mobile_booking_club_member_eilat_with_flight</t>
-        </is>
-      </c>
-      <c r="B25" s="3" t="inlineStr"/>
-      <c r="C25" s="3" t="inlineStr">
-        <is>
-          <t>999318330</t>
-        </is>
-      </c>
-      <c r="D25" s="3" t="inlineStr">
-        <is>
-          <t>בדיקת השלמת הזמנה משתמש מחובר עם מועדון פעיל + טיסות</t>
-        </is>
-      </c>
-      <c r="E25" s="3" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="F25" s="3" t="inlineStr">
-        <is>
-          <t>2025-08-05 09:07:03</t>
-        </is>
-      </c>
-      <c r="G25" s="3" t="inlineStr">
-        <is>
-          <t>91.97s</t>
-        </is>
-      </c>
-      <c r="H25" s="3" t="inlineStr">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>test_mobile_booking_fattal_gift1</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>980025784</t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="inlineStr">
+        <is>
+          <t>786396242</t>
+        </is>
+      </c>
+      <c r="D25" s="1" t="inlineStr">
+        <is>
+          <t>בדיקת השלמת הזמנה משתמש אנונימי +3 קופונים של פתאל גיפטס באילת</t>
+        </is>
+      </c>
+      <c r="E25" s="1" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="F25" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-20 17:09:10</t>
+        </is>
+      </c>
+      <c r="G25" s="1" t="inlineStr">
+        <is>
+          <t>102.93s</t>
+        </is>
+      </c>
+      <c r="H25" s="1" t="inlineStr">
         <is>
           <t>Chrome</t>
         </is>
       </c>
-      <c r="I25" s="3" t="inlineStr">
+      <c r="I25" s="1" t="inlineStr">
         <is>
           <t>windows</t>
         </is>
       </c>
-      <c r="J25" s="3" t="inlineStr">
-        <is>
-          <t>Club User</t>
-        </is>
-      </c>
-      <c r="K25" s="3" t="inlineStr">
-        <is>
-          <t>chenttedgui@gmail.com</t>
-        </is>
-      </c>
-      <c r="L25" s="3" t="inlineStr"/>
-      <c r="M25" s="3" t="inlineStr"/>
-      <c r="N25" s="3" t="inlineStr"/>
-      <c r="O25" s="4" t="inlineStr">
+      <c r="J25" s="1" t="inlineStr">
+        <is>
+          <t>חן טסט</t>
+        </is>
+      </c>
+      <c r="K25" s="1" t="inlineStr">
+        <is>
+          <t>restestfattal@gmail.com</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>📷 Screenshot</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>📷 Screenshot</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>📷 Screenshot</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
         <is>
           <t>🧾 Log File</t>
         </is>
@@ -2190,22 +2134,22 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>test_mobile_booking_fattal_gift3</t>
+          <t>test_mobile_booking_club_member_deals</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>980025550</t>
+          <t>980080960</t>
         </is>
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
-          <t>220948871</t>
+          <t>999318330</t>
         </is>
       </c>
       <c r="D26" s="1" t="inlineStr">
         <is>
-          <t>בדיקת השלמת הזמנה משתמש אנונימי + קופון 1 של פתאל גיפטס באילת</t>
+          <t>בדיקת השלמת הזמנה משתמש מחובר עמוד דילים</t>
         </is>
       </c>
       <c r="E26" s="1" t="inlineStr">
@@ -2215,12 +2159,12 @@
       </c>
       <c r="F26" s="1" t="inlineStr">
         <is>
-          <t>2025-08-05 09:08:23</t>
+          <t>2025-08-20 17:12:01</t>
         </is>
       </c>
       <c r="G26" s="1" t="inlineStr">
         <is>
-          <t>74.70s</t>
+          <t>72.38s</t>
         </is>
       </c>
       <c r="H26" s="1" t="inlineStr">
@@ -2235,12 +2179,12 @@
       </c>
       <c r="J26" s="1" t="inlineStr">
         <is>
-          <t>חן טסט</t>
+          <t>Club User</t>
         </is>
       </c>
       <c r="K26" s="1" t="inlineStr">
         <is>
-          <t>chenttedgui@gmail.com</t>
+          <t>restestfattal@gmail.com</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
@@ -2267,18 +2211,18 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>test_mobile_booking_club_member_11night</t>
+          <t>test_mobile_booking_club_member_eilat_with_flight</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr"/>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>999425861</t>
+          <t>999318330</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
         <is>
-          <t>בדיקת השלמת הזמנה משתמש מחובר חבר מועדון פעיל + הטבת לילה 11 מתנה</t>
+          <t>בדיקת השלמת הזמנה משתמש מחובר עם מועדון פעיל + טיסות</t>
         </is>
       </c>
       <c r="E27" s="3" t="inlineStr">
@@ -2288,12 +2232,12 @@
       </c>
       <c r="F27" s="3" t="inlineStr">
         <is>
-          <t>2025-08-05 09:09:20</t>
+          <t>2025-08-20 17:18:50</t>
         </is>
       </c>
       <c r="G27" s="3" t="inlineStr">
         <is>
-          <t>27.32s</t>
+          <t>110.30s</t>
         </is>
       </c>
       <c r="H27" s="3" t="inlineStr">
@@ -2313,7 +2257,7 @@
       </c>
       <c r="K27" s="3" t="inlineStr">
         <is>
-          <t>chenttedgui@gmail.com</t>
+          <t>restestfattal@gmail.com</t>
         </is>
       </c>
       <c r="L27" s="3" t="inlineStr"/>
@@ -2326,61 +2270,77 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="inlineStr">
-        <is>
-          <t>test_mobile_booking_club_member_eilat_with_flight</t>
-        </is>
-      </c>
-      <c r="B28" s="3" t="inlineStr"/>
-      <c r="C28" s="3" t="inlineStr">
-        <is>
-          <t>999318330</t>
-        </is>
-      </c>
-      <c r="D28" s="3" t="inlineStr">
-        <is>
-          <t>בדיקת השלמת הזמנה משתמש מחובר עם מועדון פעיל + טיסות</t>
-        </is>
-      </c>
-      <c r="E28" s="3" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="F28" s="3" t="inlineStr">
-        <is>
-          <t>2025-08-05 09:10:57</t>
-        </is>
-      </c>
-      <c r="G28" s="3" t="inlineStr">
-        <is>
-          <t>90.76s</t>
-        </is>
-      </c>
-      <c r="H28" s="3" t="inlineStr">
-        <is>
-          <t>Chrome</t>
-        </is>
-      </c>
-      <c r="I28" s="3" t="inlineStr">
-        <is>
-          <t>windows</t>
-        </is>
-      </c>
-      <c r="J28" s="3" t="inlineStr">
-        <is>
-          <t>Club User</t>
-        </is>
-      </c>
-      <c r="K28" s="3" t="inlineStr">
-        <is>
-          <t>chenttedgui@gmail.com</t>
-        </is>
-      </c>
-      <c r="L28" s="3" t="inlineStr"/>
-      <c r="M28" s="3" t="inlineStr"/>
-      <c r="N28" s="3" t="inlineStr"/>
-      <c r="O28" s="4" t="inlineStr">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>test_desktop_anonymous_booking</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>980025785</t>
+        </is>
+      </c>
+      <c r="C28" s="1" t="inlineStr">
+        <is>
+          <t>680244712</t>
+        </is>
+      </c>
+      <c r="D28" s="1" t="inlineStr">
+        <is>
+          <t>בדיקת השלמת הזמנה מתשמש אנונימי</t>
+        </is>
+      </c>
+      <c r="E28" s="1" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="F28" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-20 17:23:00</t>
+        </is>
+      </c>
+      <c r="G28" s="1" t="inlineStr">
+        <is>
+          <t>108.88s</t>
+        </is>
+      </c>
+      <c r="H28" s="1" t="inlineStr">
+        <is>
+          <t>chrome</t>
+        </is>
+      </c>
+      <c r="I28" s="1" t="inlineStr">
+        <is>
+          <t>Windows</t>
+        </is>
+      </c>
+      <c r="J28" s="1" t="inlineStr">
+        <is>
+          <t>חן טסט</t>
+        </is>
+      </c>
+      <c r="K28" s="1" t="inlineStr">
+        <is>
+          <t>restestfattal@gmail.com</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>📷 Screenshot</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>📷 Screenshot</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>📷 Screenshot</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
         <is>
           <t>🧾 Log File</t>
         </is>
@@ -2389,18 +2349,18 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>test_mobile_booking_club_member_11night</t>
+          <t>test_desktop_booking_anonymous_join_fattal_and_friends</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr"/>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>999425861</t>
+          <t>607568573</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
         <is>
-          <t>בדיקת השלמת הזמנה משתמש מחובר חבר מועדון פעיל + הטבת לילה 11 מתנה</t>
+          <t>בידקת השלמת הזמנה משתמש אנונימי + הצטפרות למועדון</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
@@ -2410,37 +2370,49 @@
       </c>
       <c r="F29" s="3" t="inlineStr">
         <is>
-          <t>2025-08-05 09:12:10</t>
+          <t>2025-08-20 17:25:36</t>
         </is>
       </c>
       <c r="G29" s="3" t="inlineStr">
         <is>
-          <t>27.43s</t>
+          <t>151.94s</t>
         </is>
       </c>
       <c r="H29" s="3" t="inlineStr">
         <is>
-          <t>Chrome</t>
+          <t>chrome</t>
         </is>
       </c>
       <c r="I29" s="3" t="inlineStr">
         <is>
-          <t>windows</t>
+          <t>Windows</t>
         </is>
       </c>
       <c r="J29" s="3" t="inlineStr">
         <is>
-          <t>Club User</t>
+          <t>חן טסט</t>
         </is>
       </c>
       <c r="K29" s="3" t="inlineStr">
         <is>
-          <t>chenttedgui@gmail.com</t>
-        </is>
-      </c>
-      <c r="L29" s="3" t="inlineStr"/>
-      <c r="M29" s="3" t="inlineStr"/>
-      <c r="N29" s="3" t="inlineStr"/>
+          <t>restestfattal@gmail.com</t>
+        </is>
+      </c>
+      <c r="L29" s="4" t="inlineStr">
+        <is>
+          <t>📷 Screenshot</t>
+        </is>
+      </c>
+      <c r="M29" s="4" t="inlineStr">
+        <is>
+          <t>📷 Screenshot</t>
+        </is>
+      </c>
+      <c r="N29" s="4" t="inlineStr">
+        <is>
+          <t>📷 Screenshot</t>
+        </is>
+      </c>
       <c r="O29" s="4" t="inlineStr">
         <is>
           <t>🧾 Log File</t>
@@ -2450,18 +2422,14 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>test_mobile_booking_club_member_11night</t>
+          <t>test_desktop_booking_anonymous_region_eilat</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr"/>
-      <c r="C30" s="3" t="inlineStr">
-        <is>
-          <t>999425861</t>
-        </is>
-      </c>
+      <c r="C30" s="3" t="inlineStr"/>
       <c r="D30" s="3" t="inlineStr">
         <is>
-          <t>בדיקת השלמת הזמנה משתמש מחובר חבר מועדון פעיל + הטבת לילה 11 מתנה</t>
+          <t>בדיקת השלמת הזמנה משתמש אנונימי דרך אזור מלונות אילת</t>
         </is>
       </c>
       <c r="E30" s="3" t="inlineStr">
@@ -2471,37 +2439,33 @@
       </c>
       <c r="F30" s="3" t="inlineStr">
         <is>
-          <t>2025-08-05 09:15:39</t>
+          <t>2025-08-20 17:27:16</t>
         </is>
       </c>
       <c r="G30" s="3" t="inlineStr">
         <is>
-          <t>28.83s</t>
+          <t>87.80s</t>
         </is>
       </c>
       <c r="H30" s="3" t="inlineStr">
         <is>
-          <t>Chrome</t>
+          <t>chrome</t>
         </is>
       </c>
       <c r="I30" s="3" t="inlineStr">
         <is>
-          <t>windows</t>
-        </is>
-      </c>
-      <c r="J30" s="3" t="inlineStr">
-        <is>
-          <t>Club User</t>
-        </is>
-      </c>
-      <c r="K30" s="3" t="inlineStr">
-        <is>
-          <t>chenttedgui@gmail.com</t>
-        </is>
-      </c>
+          <t>Windows</t>
+        </is>
+      </c>
+      <c r="J30" s="3" t="inlineStr"/>
+      <c r="K30" s="3" t="inlineStr"/>
       <c r="L30" s="3" t="inlineStr"/>
       <c r="M30" s="3" t="inlineStr"/>
-      <c r="N30" s="3" t="inlineStr"/>
+      <c r="N30" s="4" t="inlineStr">
+        <is>
+          <t>📷 Screenshot</t>
+        </is>
+      </c>
       <c r="O30" s="4" t="inlineStr">
         <is>
           <t>🧾 Log File</t>
@@ -2509,61 +2473,77 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="inlineStr">
-        <is>
-          <t>test_mobile_booking_club_member_11night</t>
-        </is>
-      </c>
-      <c r="B31" s="3" t="inlineStr"/>
-      <c r="C31" s="3" t="inlineStr">
-        <is>
-          <t>999425861</t>
-        </is>
-      </c>
-      <c r="D31" s="3" t="inlineStr">
-        <is>
-          <t>בדיקת השלמת הזמנה משתמש מחובר חבר מועדון פעיל + הטבת לילה 11 מתנה</t>
-        </is>
-      </c>
-      <c r="E31" s="3" t="inlineStr">
-        <is>
-          <t>FAILED</t>
-        </is>
-      </c>
-      <c r="F31" s="3" t="inlineStr">
-        <is>
-          <t>2025-08-05 09:17:29</t>
-        </is>
-      </c>
-      <c r="G31" s="3" t="inlineStr">
-        <is>
-          <t>28.15s</t>
-        </is>
-      </c>
-      <c r="H31" s="3" t="inlineStr">
-        <is>
-          <t>Chrome</t>
-        </is>
-      </c>
-      <c r="I31" s="3" t="inlineStr">
-        <is>
-          <t>windows</t>
-        </is>
-      </c>
-      <c r="J31" s="3" t="inlineStr">
-        <is>
-          <t>Club User</t>
-        </is>
-      </c>
-      <c r="K31" s="3" t="inlineStr">
-        <is>
-          <t>chenttedgui@gmail.com</t>
-        </is>
-      </c>
-      <c r="L31" s="3" t="inlineStr"/>
-      <c r="M31" s="3" t="inlineStr"/>
-      <c r="N31" s="3" t="inlineStr"/>
-      <c r="O31" s="4" t="inlineStr">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>test_desktop_booking_club_member</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>980025787</t>
+        </is>
+      </c>
+      <c r="C31" s="1" t="inlineStr">
+        <is>
+          <t>285261319</t>
+        </is>
+      </c>
+      <c r="D31" s="1" t="inlineStr">
+        <is>
+          <t>בדיקת השלמת הזמנה משתמש מחובר חבר מועדון פעיל</t>
+        </is>
+      </c>
+      <c r="E31" s="1" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="F31" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-20 17:29:24</t>
+        </is>
+      </c>
+      <c r="G31" s="1" t="inlineStr">
+        <is>
+          <t>115.35s</t>
+        </is>
+      </c>
+      <c r="H31" s="1" t="inlineStr">
+        <is>
+          <t>chrome</t>
+        </is>
+      </c>
+      <c r="I31" s="1" t="inlineStr">
+        <is>
+          <t>Windows</t>
+        </is>
+      </c>
+      <c r="J31" s="1" t="inlineStr">
+        <is>
+          <t>חן טסט</t>
+        </is>
+      </c>
+      <c r="K31" s="1" t="inlineStr">
+        <is>
+          <t>restestfattal@gmail.com</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>📷 Screenshot</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>📷 Screenshot</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>📷 Screenshot</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
         <is>
           <t>🧾 Log File</t>
         </is>
@@ -2572,18 +2552,14 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>test_mobile_booking_club_member_11night</t>
+          <t>test_desktop_booking_club_member_eilat_with_flight</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr"/>
-      <c r="C32" s="3" t="inlineStr">
-        <is>
-          <t>999425861</t>
-        </is>
-      </c>
+      <c r="C32" s="3" t="inlineStr"/>
       <c r="D32" s="3" t="inlineStr">
         <is>
-          <t>בדיקת השלמת הזמנה משתמש מחובר חבר מועדון פעיל + הטבת לילה 11 מתנה</t>
+          <t>בדיקת השלמת הזמנה משתמש מחובר עם מועדון פעיל + טיסות</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
@@ -2593,37 +2569,45 @@
       </c>
       <c r="F32" s="3" t="inlineStr">
         <is>
-          <t>2025-08-05 10:30:53</t>
+          <t>2025-08-20 17:33:34</t>
         </is>
       </c>
       <c r="G32" s="3" t="inlineStr">
         <is>
-          <t>27.65s</t>
+          <t>244.96s</t>
         </is>
       </c>
       <c r="H32" s="3" t="inlineStr">
         <is>
-          <t>Chrome</t>
+          <t>chrome</t>
         </is>
       </c>
       <c r="I32" s="3" t="inlineStr">
         <is>
-          <t>windows</t>
+          <t>Windows</t>
         </is>
       </c>
       <c r="J32" s="3" t="inlineStr">
         <is>
-          <t>Club User</t>
+          <t>חן טסט</t>
         </is>
       </c>
       <c r="K32" s="3" t="inlineStr">
         <is>
-          <t>chenttedgui@gmail.com</t>
-        </is>
-      </c>
-      <c r="L32" s="3" t="inlineStr"/>
+          <t>restestfattal@gmail.com</t>
+        </is>
+      </c>
+      <c r="L32" s="4" t="inlineStr">
+        <is>
+          <t>📷 Screenshot</t>
+        </is>
+      </c>
       <c r="M32" s="3" t="inlineStr"/>
-      <c r="N32" s="3" t="inlineStr"/>
+      <c r="N32" s="4" t="inlineStr">
+        <is>
+          <t>📷 Screenshot</t>
+        </is>
+      </c>
       <c r="O32" s="4" t="inlineStr">
         <is>
           <t>🧾 Log File</t>
@@ -2633,22 +2617,22 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>test_mobile_booking_club_member_11night</t>
+          <t>test_mobile_booking_with_club_login</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>980025551</t>
+          <t>980025857</t>
         </is>
       </c>
       <c r="C33" s="1" t="inlineStr">
         <is>
-          <t>999425861</t>
+          <t>999318330</t>
         </is>
       </c>
       <c r="D33" s="1" t="inlineStr">
         <is>
-          <t>בדיקת השלמת הזמנה משתמש מחובר חבר מועדון פעיל + הטבת לילה 11 מתנה</t>
+          <t>בדיקת השלמת הזמנה משתמש מועדון</t>
         </is>
       </c>
       <c r="E33" s="1" t="inlineStr">
@@ -2658,12 +2642,12 @@
       </c>
       <c r="F33" s="1" t="inlineStr">
         <is>
-          <t>2025-08-05 10:42:31</t>
+          <t>2025-08-26 11:05:43</t>
         </is>
       </c>
       <c r="G33" s="1" t="inlineStr">
         <is>
-          <t>63.35s</t>
+          <t>89.29s</t>
         </is>
       </c>
       <c r="H33" s="1" t="inlineStr">
@@ -2683,7 +2667,7 @@
       </c>
       <c r="K33" s="1" t="inlineStr">
         <is>
-          <t>chenttedgui@gmail.com</t>
+          <t>restestfattal@gmail.com</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
@@ -2708,77 +2692,61 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>test_mobile_booking_club_member_11night</t>
-        </is>
-      </c>
-      <c r="B34" s="1" t="inlineStr">
-        <is>
-          <t>980025552</t>
-        </is>
-      </c>
-      <c r="C34" s="1" t="inlineStr">
-        <is>
-          <t>999425861</t>
-        </is>
-      </c>
-      <c r="D34" s="1" t="inlineStr">
-        <is>
-          <t>בדיקת השלמת הזמנה משתמש מחובר חבר מועדון פעיל + הטבת לילה 11 מתנה</t>
-        </is>
-      </c>
-      <c r="E34" s="1" t="inlineStr">
-        <is>
-          <t>PASSED</t>
-        </is>
-      </c>
-      <c r="F34" s="1" t="inlineStr">
-        <is>
-          <t>2025-08-05 10:50:22</t>
-        </is>
-      </c>
-      <c r="G34" s="1" t="inlineStr">
-        <is>
-          <t>63.56s</t>
-        </is>
-      </c>
-      <c r="H34" s="1" t="inlineStr">
+      <c r="A34" s="3" t="inlineStr">
+        <is>
+          <t>test_mobile_booking_with_club_login</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr"/>
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t>999318330</t>
+        </is>
+      </c>
+      <c r="D34" s="3" t="inlineStr">
+        <is>
+          <t>בדיקת השלמת הזמנה משתמש מועדון</t>
+        </is>
+      </c>
+      <c r="E34" s="3" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="F34" s="3" t="inlineStr">
+        <is>
+          <t>2025-08-26 11:12:47</t>
+        </is>
+      </c>
+      <c r="G34" s="3" t="inlineStr">
+        <is>
+          <t>58.52s</t>
+        </is>
+      </c>
+      <c r="H34" s="3" t="inlineStr">
         <is>
           <t>Chrome</t>
         </is>
       </c>
-      <c r="I34" s="1" t="inlineStr">
+      <c r="I34" s="3" t="inlineStr">
         <is>
           <t>windows</t>
         </is>
       </c>
-      <c r="J34" s="1" t="inlineStr">
+      <c r="J34" s="3" t="inlineStr">
         <is>
           <t>Club User</t>
         </is>
       </c>
-      <c r="K34" s="1" t="inlineStr">
-        <is>
-          <t>chenttedgui@gmail.com</t>
-        </is>
-      </c>
-      <c r="L34" s="2" t="inlineStr">
-        <is>
-          <t>📷 Screenshot</t>
-        </is>
-      </c>
-      <c r="M34" s="2" t="inlineStr">
-        <is>
-          <t>📷 Screenshot</t>
-        </is>
-      </c>
-      <c r="N34" s="2" t="inlineStr">
-        <is>
-          <t>📷 Screenshot</t>
-        </is>
-      </c>
-      <c r="O34" s="2" t="inlineStr">
+      <c r="K34" s="3" t="inlineStr">
+        <is>
+          <t>restestfattal@gmail.com</t>
+        </is>
+      </c>
+      <c r="L34" s="3" t="inlineStr"/>
+      <c r="M34" s="3" t="inlineStr"/>
+      <c r="N34" s="3" t="inlineStr"/>
+      <c r="O34" s="4" t="inlineStr">
         <is>
           <t>🧾 Log File</t>
         </is>
@@ -2787,18 +2755,14 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>test_mobile_booking_with_club_login</t>
+          <t>test_mobile_booking_anonymous_fattal_employee_promo_code</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr"/>
-      <c r="C35" s="3" t="inlineStr">
-        <is>
-          <t>999318330</t>
-        </is>
-      </c>
+      <c r="C35" s="3" t="inlineStr"/>
       <c r="D35" s="3" t="inlineStr">
         <is>
-          <t>בדיקת השלמת הזמנה משתמש מועדון</t>
+          <t>בדיקת השלמת הזמנה משתמש אנונימי ושימוש בפרומו קוד חבר (EMP23FA)</t>
         </is>
       </c>
       <c r="E35" s="3" t="inlineStr">
@@ -2808,12 +2772,12 @@
       </c>
       <c r="F35" s="3" t="inlineStr">
         <is>
-          <t>2025-08-05 10:57:22</t>
+          <t>2025-08-27 16:40:19</t>
         </is>
       </c>
       <c r="G35" s="3" t="inlineStr">
         <is>
-          <t>78.95s</t>
+          <t>33.58s</t>
         </is>
       </c>
       <c r="H35" s="3" t="inlineStr">
@@ -2826,24 +2790,77 @@
           <t>windows</t>
         </is>
       </c>
-      <c r="J35" s="3" t="inlineStr">
-        <is>
-          <t>Club User</t>
-        </is>
-      </c>
-      <c r="K35" s="3" t="inlineStr">
-        <is>
-          <t>chenttedgui@gmail.com</t>
-        </is>
-      </c>
-      <c r="L35" s="4" t="inlineStr">
-        <is>
-          <t>📷 Screenshot</t>
-        </is>
-      </c>
+      <c r="J35" s="3" t="inlineStr"/>
+      <c r="K35" s="3" t="inlineStr"/>
+      <c r="L35" s="3" t="inlineStr"/>
       <c r="M35" s="3" t="inlineStr"/>
       <c r="N35" s="3" t="inlineStr"/>
       <c r="O35" s="4" t="inlineStr">
+        <is>
+          <t>🧾 Log File</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>test_mobile_booking_anonymous_fattal_employee_promo_code</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr"/>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>029400124</t>
+        </is>
+      </c>
+      <c r="D36" s="3" t="inlineStr">
+        <is>
+          <t>בדיקת השלמת הזמנה משתמש אנונימי ושימוש בפרומו קוד חבר (EMP23FA)</t>
+        </is>
+      </c>
+      <c r="E36" s="3" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="F36" s="3" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:43:53</t>
+        </is>
+      </c>
+      <c r="G36" s="3" t="inlineStr">
+        <is>
+          <t>62.91s</t>
+        </is>
+      </c>
+      <c r="H36" s="3" t="inlineStr">
+        <is>
+          <t>Chrome</t>
+        </is>
+      </c>
+      <c r="I36" s="3" t="inlineStr">
+        <is>
+          <t>windows</t>
+        </is>
+      </c>
+      <c r="J36" s="3" t="inlineStr"/>
+      <c r="K36" s="3" t="inlineStr">
+        <is>
+          <t>restestfattal@gmail.com</t>
+        </is>
+      </c>
+      <c r="L36" s="4" t="inlineStr">
+        <is>
+          <t>📷 Screenshot</t>
+        </is>
+      </c>
+      <c r="M36" s="4" t="inlineStr">
+        <is>
+          <t>📷 Screenshot</t>
+        </is>
+      </c>
+      <c r="N36" s="3" t="inlineStr"/>
+      <c r="O36" s="4" t="inlineStr">
         <is>
           <t>🧾 Log File</t>
         </is>
@@ -2855,94 +2872,99 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M2" r:id="rId2"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N2" r:id="rId3"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O2" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L3" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M3" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N3" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O3" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L4" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M4" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N4" r:id="rId11"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O4" r:id="rId12"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L5" r:id="rId13"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M5" r:id="rId14"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N5" r:id="rId15"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O5" r:id="rId16"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O6" r:id="rId17"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L7" r:id="rId18"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M7" r:id="rId19"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N7" r:id="rId20"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O7" r:id="rId21"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O8" r:id="rId22"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L9" r:id="rId23"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M9" r:id="rId24"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N9" r:id="rId25"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O9" r:id="rId26"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L10" r:id="rId27"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M10" r:id="rId28"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N10" r:id="rId29"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O10" r:id="rId30"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L11" r:id="rId31"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M11" r:id="rId32"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N11" r:id="rId33"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O11" r:id="rId34"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L12" r:id="rId35"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O12" r:id="rId36"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L13" r:id="rId37"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M13" r:id="rId38"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N13" r:id="rId39"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O13" r:id="rId40"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O14" r:id="rId41"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L15" r:id="rId42"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M15" r:id="rId43"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N15" r:id="rId44"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O15" r:id="rId45"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M16" r:id="rId46"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N16" r:id="rId47"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O16" r:id="rId48"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L17" r:id="rId49"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M17" r:id="rId50"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N17" r:id="rId51"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O17" r:id="rId52"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N18" r:id="rId53"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O18" r:id="rId54"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L19" r:id="rId55"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M19" r:id="rId56"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N19" r:id="rId57"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O19" r:id="rId58"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N20" r:id="rId59"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O20" r:id="rId60"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L21" r:id="rId61"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M21" r:id="rId62"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N21" r:id="rId63"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O21" r:id="rId64"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L22" r:id="rId65"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M22" r:id="rId66"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N22" r:id="rId67"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O22" r:id="rId68"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O23" r:id="rId69"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N24" r:id="rId70"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O24" r:id="rId71"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O25" r:id="rId72"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L26" r:id="rId73"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M26" r:id="rId74"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N26" r:id="rId75"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O26" r:id="rId76"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O27" r:id="rId77"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O28" r:id="rId78"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O3" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O4" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O5" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O6" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L7" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M7" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N7" r:id="rId11"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O7" r:id="rId12"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L8" r:id="rId13"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M8" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N8" r:id="rId15"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O8" r:id="rId16"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L9" r:id="rId17"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M9" r:id="rId18"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N9" r:id="rId19"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O9" r:id="rId20"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O10" r:id="rId21"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L11" r:id="rId22"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M11" r:id="rId23"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O11" r:id="rId24"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O12" r:id="rId25"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O13" r:id="rId26"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L14" r:id="rId27"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M14" r:id="rId28"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N14" r:id="rId29"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O14" r:id="rId30"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L15" r:id="rId31"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M15" r:id="rId32"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N15" r:id="rId33"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O15" r:id="rId34"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M16" r:id="rId35"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N16" r:id="rId36"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O16" r:id="rId37"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N17" r:id="rId38"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O17" r:id="rId39"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L18" r:id="rId40"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M18" r:id="rId41"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N18" r:id="rId42"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O18" r:id="rId43"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L19" r:id="rId44"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M19" r:id="rId45"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N19" r:id="rId46"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O19" r:id="rId47"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L20" r:id="rId48"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M20" r:id="rId49"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N20" r:id="rId50"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O20" r:id="rId51"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L21" r:id="rId52"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M21" r:id="rId53"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N21" r:id="rId54"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O21" r:id="rId55"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L22" r:id="rId56"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M22" r:id="rId57"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N22" r:id="rId58"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O22" r:id="rId59"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L23" r:id="rId60"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O23" r:id="rId61"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O24" r:id="rId62"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L25" r:id="rId63"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M25" r:id="rId64"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N25" r:id="rId65"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O25" r:id="rId66"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L26" r:id="rId67"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M26" r:id="rId68"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N26" r:id="rId69"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O26" r:id="rId70"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O27" r:id="rId71"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L28" r:id="rId72"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M28" r:id="rId73"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N28" r:id="rId74"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O28" r:id="rId75"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L29" r:id="rId76"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M29" r:id="rId77"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N29" r:id="rId78"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O29" r:id="rId79"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O30" r:id="rId80"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O31" r:id="rId81"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O32" r:id="rId82"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L33" r:id="rId83"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M33" r:id="rId84"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N33" r:id="rId85"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O33" r:id="rId86"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L34" r:id="rId87"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M34" r:id="rId88"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N34" r:id="rId89"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O34" r:id="rId90"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L35" r:id="rId91"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O35" r:id="rId92"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N30" r:id="rId80"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O30" r:id="rId81"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L31" r:id="rId82"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M31" r:id="rId83"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N31" r:id="rId84"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O31" r:id="rId85"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L32" r:id="rId86"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N32" r:id="rId87"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O32" r:id="rId88"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L33" r:id="rId89"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M33" r:id="rId90"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N33" r:id="rId91"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O33" r:id="rId92"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O34" r:id="rId93"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O35" r:id="rId94"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L36" r:id="rId95"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M36" r:id="rId96"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O36" r:id="rId97"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/TestResults.xlsx
+++ b/TestResults.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2861,6 +2861,849 @@
       </c>
       <c r="N36" s="3" t="inlineStr"/>
       <c r="O36" s="4" t="inlineStr">
+        <is>
+          <t>🧾 Log File</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
+        <is>
+          <t>test_mobile_booking_anonymous_join_fattal_and_friends</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="inlineStr"/>
+      <c r="C37" s="3" t="inlineStr"/>
+      <c r="D37" s="3" t="inlineStr">
+        <is>
+          <t>בדיקת השלמת הזמנה משתמש אנונימי + הצטפרות למועדון</t>
+        </is>
+      </c>
+      <c r="E37" s="3" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="F37" s="3" t="inlineStr">
+        <is>
+          <t>2025-08-30 19:36:51</t>
+        </is>
+      </c>
+      <c r="G37" s="3" t="inlineStr">
+        <is>
+          <t>57.14s</t>
+        </is>
+      </c>
+      <c r="H37" s="3" t="inlineStr">
+        <is>
+          <t>Chrome</t>
+        </is>
+      </c>
+      <c r="I37" s="3" t="inlineStr">
+        <is>
+          <t>windows</t>
+        </is>
+      </c>
+      <c r="J37" s="3" t="inlineStr"/>
+      <c r="K37" s="3" t="inlineStr"/>
+      <c r="L37" s="3" t="inlineStr"/>
+      <c r="M37" s="3" t="inlineStr"/>
+      <c r="N37" s="3" t="inlineStr"/>
+      <c r="O37" s="4" t="inlineStr">
+        <is>
+          <t>🧾 Log File</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="inlineStr">
+        <is>
+          <t>test_mobile_booking_anonymous_join_fattal_and_friends</t>
+        </is>
+      </c>
+      <c r="B38" s="3" t="inlineStr"/>
+      <c r="C38" s="3" t="inlineStr"/>
+      <c r="D38" s="3" t="inlineStr">
+        <is>
+          <t>בדיקת השלמת הזמנה משתמש אנונימי + הצטפרות למועדון</t>
+        </is>
+      </c>
+      <c r="E38" s="3" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="F38" s="3" t="inlineStr">
+        <is>
+          <t>2025-08-30 19:50:07</t>
+        </is>
+      </c>
+      <c r="G38" s="3" t="inlineStr">
+        <is>
+          <t>33.47s</t>
+        </is>
+      </c>
+      <c r="H38" s="3" t="inlineStr">
+        <is>
+          <t>Chrome</t>
+        </is>
+      </c>
+      <c r="I38" s="3" t="inlineStr">
+        <is>
+          <t>windows</t>
+        </is>
+      </c>
+      <c r="J38" s="3" t="inlineStr"/>
+      <c r="K38" s="3" t="inlineStr"/>
+      <c r="L38" s="3" t="inlineStr"/>
+      <c r="M38" s="3" t="inlineStr"/>
+      <c r="N38" s="3" t="inlineStr"/>
+      <c r="O38" s="4" t="inlineStr">
+        <is>
+          <t>🧾 Log File</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="inlineStr">
+        <is>
+          <t>test_mobile_booking_anonymous_join_fattal_and_friends</t>
+        </is>
+      </c>
+      <c r="B39" s="3" t="inlineStr"/>
+      <c r="C39" s="3" t="inlineStr"/>
+      <c r="D39" s="3" t="inlineStr">
+        <is>
+          <t>בדיקת השלמת הזמנה משתמש אנונימי + הצטפרות למועדון</t>
+        </is>
+      </c>
+      <c r="E39" s="3" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="F39" s="3" t="inlineStr">
+        <is>
+          <t>2025-08-30 19:52:06</t>
+        </is>
+      </c>
+      <c r="G39" s="3" t="inlineStr">
+        <is>
+          <t>24.16s</t>
+        </is>
+      </c>
+      <c r="H39" s="3" t="inlineStr">
+        <is>
+          <t>Chrome</t>
+        </is>
+      </c>
+      <c r="I39" s="3" t="inlineStr">
+        <is>
+          <t>windows</t>
+        </is>
+      </c>
+      <c r="J39" s="3" t="inlineStr"/>
+      <c r="K39" s="3" t="inlineStr"/>
+      <c r="L39" s="3" t="inlineStr"/>
+      <c r="M39" s="3" t="inlineStr"/>
+      <c r="N39" s="3" t="inlineStr"/>
+      <c r="O39" s="4" t="inlineStr">
+        <is>
+          <t>🧾 Log File</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="inlineStr">
+        <is>
+          <t>test_mobile_booking_anonymous_join_fattal_and_friends</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr"/>
+      <c r="C40" s="3" t="inlineStr"/>
+      <c r="D40" s="3" t="inlineStr">
+        <is>
+          <t>בדיקת השלמת הזמנה משתמש אנונימי + הצטפרות למועדון</t>
+        </is>
+      </c>
+      <c r="E40" s="3" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="F40" s="3" t="inlineStr">
+        <is>
+          <t>2025-08-30 19:53:11</t>
+        </is>
+      </c>
+      <c r="G40" s="3" t="inlineStr">
+        <is>
+          <t>33.91s</t>
+        </is>
+      </c>
+      <c r="H40" s="3" t="inlineStr">
+        <is>
+          <t>Chrome</t>
+        </is>
+      </c>
+      <c r="I40" s="3" t="inlineStr">
+        <is>
+          <t>windows</t>
+        </is>
+      </c>
+      <c r="J40" s="3" t="inlineStr"/>
+      <c r="K40" s="3" t="inlineStr"/>
+      <c r="L40" s="3" t="inlineStr"/>
+      <c r="M40" s="3" t="inlineStr"/>
+      <c r="N40" s="3" t="inlineStr"/>
+      <c r="O40" s="4" t="inlineStr">
+        <is>
+          <t>🧾 Log File</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="inlineStr">
+        <is>
+          <t>test_mobile_booking_anonymous_join_fattal_and_friends</t>
+        </is>
+      </c>
+      <c r="B41" s="3" t="inlineStr"/>
+      <c r="C41" s="3" t="inlineStr"/>
+      <c r="D41" s="3" t="inlineStr">
+        <is>
+          <t>בדיקת השלמת הזמנה משתמש אנונימי + הצטפרות למועדון</t>
+        </is>
+      </c>
+      <c r="E41" s="3" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="F41" s="3" t="inlineStr">
+        <is>
+          <t>2025-08-30 19:56:09</t>
+        </is>
+      </c>
+      <c r="G41" s="3" t="inlineStr">
+        <is>
+          <t>33.86s</t>
+        </is>
+      </c>
+      <c r="H41" s="3" t="inlineStr">
+        <is>
+          <t>Chrome</t>
+        </is>
+      </c>
+      <c r="I41" s="3" t="inlineStr">
+        <is>
+          <t>windows</t>
+        </is>
+      </c>
+      <c r="J41" s="3" t="inlineStr"/>
+      <c r="K41" s="3" t="inlineStr"/>
+      <c r="L41" s="3" t="inlineStr"/>
+      <c r="M41" s="3" t="inlineStr"/>
+      <c r="N41" s="3" t="inlineStr"/>
+      <c r="O41" s="4" t="inlineStr">
+        <is>
+          <t>🧾 Log File</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="inlineStr">
+        <is>
+          <t>test_mobile_booking_anonymous_join_fattal_and_friends</t>
+        </is>
+      </c>
+      <c r="B42" s="3" t="inlineStr"/>
+      <c r="C42" s="3" t="inlineStr"/>
+      <c r="D42" s="3" t="inlineStr">
+        <is>
+          <t>בדיקת השלמת הזמנה משתמש אנונימי + הצטפרות למועדון</t>
+        </is>
+      </c>
+      <c r="E42" s="3" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="F42" s="3" t="inlineStr">
+        <is>
+          <t>2025-08-30 20:00:03</t>
+        </is>
+      </c>
+      <c r="G42" s="3" t="inlineStr">
+        <is>
+          <t>34.23s</t>
+        </is>
+      </c>
+      <c r="H42" s="3" t="inlineStr">
+        <is>
+          <t>Chrome</t>
+        </is>
+      </c>
+      <c r="I42" s="3" t="inlineStr">
+        <is>
+          <t>windows</t>
+        </is>
+      </c>
+      <c r="J42" s="3" t="inlineStr"/>
+      <c r="K42" s="3" t="inlineStr"/>
+      <c r="L42" s="3" t="inlineStr"/>
+      <c r="M42" s="3" t="inlineStr"/>
+      <c r="N42" s="3" t="inlineStr"/>
+      <c r="O42" s="4" t="inlineStr">
+        <is>
+          <t>🧾 Log File</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="inlineStr">
+        <is>
+          <t>test_mobile_booking_anonymous_join_fattal_and_friends</t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="inlineStr"/>
+      <c r="C43" s="3" t="inlineStr"/>
+      <c r="D43" s="3" t="inlineStr">
+        <is>
+          <t>בדיקת השלמת הזמנה משתמש אנונימי + הצטפרות למועדון</t>
+        </is>
+      </c>
+      <c r="E43" s="3" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="F43" s="3" t="inlineStr">
+        <is>
+          <t>2025-08-30 20:05:58</t>
+        </is>
+      </c>
+      <c r="G43" s="3" t="inlineStr">
+        <is>
+          <t>56.94s</t>
+        </is>
+      </c>
+      <c r="H43" s="3" t="inlineStr">
+        <is>
+          <t>Chrome</t>
+        </is>
+      </c>
+      <c r="I43" s="3" t="inlineStr">
+        <is>
+          <t>windows</t>
+        </is>
+      </c>
+      <c r="J43" s="3" t="inlineStr"/>
+      <c r="K43" s="3" t="inlineStr"/>
+      <c r="L43" s="3" t="inlineStr"/>
+      <c r="M43" s="3" t="inlineStr"/>
+      <c r="N43" s="3" t="inlineStr"/>
+      <c r="O43" s="4" t="inlineStr">
+        <is>
+          <t>🧾 Log File</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="inlineStr">
+        <is>
+          <t>test_mobile_booking_anonymous_join_fattal_and_friends</t>
+        </is>
+      </c>
+      <c r="B44" s="3" t="inlineStr"/>
+      <c r="C44" s="3" t="inlineStr"/>
+      <c r="D44" s="3" t="inlineStr">
+        <is>
+          <t>בדיקת השלמת הזמנה משתמש אנונימי + הצטפרות למועדון</t>
+        </is>
+      </c>
+      <c r="E44" s="3" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="F44" s="3" t="inlineStr">
+        <is>
+          <t>2025-08-30 20:07:34</t>
+        </is>
+      </c>
+      <c r="G44" s="3" t="inlineStr">
+        <is>
+          <t>23.79s</t>
+        </is>
+      </c>
+      <c r="H44" s="3" t="inlineStr">
+        <is>
+          <t>Chrome</t>
+        </is>
+      </c>
+      <c r="I44" s="3" t="inlineStr">
+        <is>
+          <t>windows</t>
+        </is>
+      </c>
+      <c r="J44" s="3" t="inlineStr"/>
+      <c r="K44" s="3" t="inlineStr"/>
+      <c r="L44" s="3" t="inlineStr"/>
+      <c r="M44" s="3" t="inlineStr"/>
+      <c r="N44" s="3" t="inlineStr"/>
+      <c r="O44" s="4" t="inlineStr">
+        <is>
+          <t>🧾 Log File</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>test_mobile_booking_anonymous_join_fattal_and_friends</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr"/>
+      <c r="C45" s="1" t="inlineStr">
+        <is>
+          <t>619746035</t>
+        </is>
+      </c>
+      <c r="D45" s="1" t="inlineStr">
+        <is>
+          <t>בדיקת השלמת הזמנה משתמש אנונימי + הצטפרות למועדון</t>
+        </is>
+      </c>
+      <c r="E45" s="1" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="F45" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-30 20:12:07</t>
+        </is>
+      </c>
+      <c r="G45" s="1" t="inlineStr">
+        <is>
+          <t>117.99s</t>
+        </is>
+      </c>
+      <c r="H45" s="1" t="inlineStr">
+        <is>
+          <t>Chrome</t>
+        </is>
+      </c>
+      <c r="I45" s="1" t="inlineStr">
+        <is>
+          <t>windows</t>
+        </is>
+      </c>
+      <c r="J45" s="1" t="inlineStr">
+        <is>
+          <t>חן טסט</t>
+        </is>
+      </c>
+      <c r="K45" s="1" t="inlineStr">
+        <is>
+          <t>restestfattal@gmail.com</t>
+        </is>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
+        <is>
+          <t>📷 Screenshot</t>
+        </is>
+      </c>
+      <c r="M45" s="2" t="inlineStr">
+        <is>
+          <t>📷 Screenshot</t>
+        </is>
+      </c>
+      <c r="N45" s="2" t="inlineStr">
+        <is>
+          <t>📷 Screenshot</t>
+        </is>
+      </c>
+      <c r="O45" s="2" t="inlineStr">
+        <is>
+          <t>🧾 Log File</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="inlineStr">
+        <is>
+          <t>test_mobile_booking_anonymous_region_eilat</t>
+        </is>
+      </c>
+      <c r="B46" s="3" t="inlineStr"/>
+      <c r="C46" s="3" t="inlineStr"/>
+      <c r="D46" s="3" t="inlineStr">
+        <is>
+          <t>בדיקת השלמת הזמנה משתמש אנונימי דרך אזור מלונות אילת</t>
+        </is>
+      </c>
+      <c r="E46" s="3" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="F46" s="3" t="inlineStr">
+        <is>
+          <t>2025-08-30 20:15:38</t>
+        </is>
+      </c>
+      <c r="G46" s="3" t="inlineStr">
+        <is>
+          <t>26.14s</t>
+        </is>
+      </c>
+      <c r="H46" s="3" t="inlineStr">
+        <is>
+          <t>Chrome</t>
+        </is>
+      </c>
+      <c r="I46" s="3" t="inlineStr">
+        <is>
+          <t>windows</t>
+        </is>
+      </c>
+      <c r="J46" s="3" t="inlineStr"/>
+      <c r="K46" s="3" t="inlineStr"/>
+      <c r="L46" s="3" t="inlineStr"/>
+      <c r="M46" s="3" t="inlineStr"/>
+      <c r="N46" s="3" t="inlineStr"/>
+      <c r="O46" s="4" t="inlineStr">
+        <is>
+          <t>🧾 Log File</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>test_mobile_booking_anonymous_region_eilat</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>980052161</t>
+        </is>
+      </c>
+      <c r="C47" s="1" t="inlineStr">
+        <is>
+          <t>798607867</t>
+        </is>
+      </c>
+      <c r="D47" s="1" t="inlineStr">
+        <is>
+          <t>בדיקת השלמת הזמנה משתמש אנונימי דרך אזור מלונות אילת</t>
+        </is>
+      </c>
+      <c r="E47" s="1" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="F47" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-30 20:19:30</t>
+        </is>
+      </c>
+      <c r="G47" s="1" t="inlineStr">
+        <is>
+          <t>130.98s</t>
+        </is>
+      </c>
+      <c r="H47" s="1" t="inlineStr">
+        <is>
+          <t>Chrome</t>
+        </is>
+      </c>
+      <c r="I47" s="1" t="inlineStr">
+        <is>
+          <t>windows</t>
+        </is>
+      </c>
+      <c r="J47" s="1" t="inlineStr">
+        <is>
+          <t>חן טסט</t>
+        </is>
+      </c>
+      <c r="K47" s="1" t="inlineStr">
+        <is>
+          <t>restestfattal@gmail.com</t>
+        </is>
+      </c>
+      <c r="L47" s="2" t="inlineStr">
+        <is>
+          <t>📷 Screenshot</t>
+        </is>
+      </c>
+      <c r="M47" s="2" t="inlineStr">
+        <is>
+          <t>📷 Screenshot</t>
+        </is>
+      </c>
+      <c r="N47" s="2" t="inlineStr">
+        <is>
+          <t>📷 Screenshot</t>
+        </is>
+      </c>
+      <c r="O47" s="2" t="inlineStr">
+        <is>
+          <t>🧾 Log File</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="inlineStr">
+        <is>
+          <t>test_mobile_booking_anonymous_region_eilat</t>
+        </is>
+      </c>
+      <c r="B48" s="3" t="inlineStr"/>
+      <c r="C48" s="3" t="inlineStr"/>
+      <c r="D48" s="3" t="inlineStr">
+        <is>
+          <t>בדיקת השלמת הזמנה משתמש אנונימי דרך אזור מלונות אילת</t>
+        </is>
+      </c>
+      <c r="E48" s="3" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="F48" s="3" t="inlineStr">
+        <is>
+          <t>2025-08-30 20:21:56</t>
+        </is>
+      </c>
+      <c r="G48" s="3" t="inlineStr">
+        <is>
+          <t>23.62s</t>
+        </is>
+      </c>
+      <c r="H48" s="3" t="inlineStr">
+        <is>
+          <t>Chrome</t>
+        </is>
+      </c>
+      <c r="I48" s="3" t="inlineStr">
+        <is>
+          <t>windows</t>
+        </is>
+      </c>
+      <c r="J48" s="3" t="inlineStr"/>
+      <c r="K48" s="3" t="inlineStr"/>
+      <c r="L48" s="3" t="inlineStr"/>
+      <c r="M48" s="3" t="inlineStr"/>
+      <c r="N48" s="3" t="inlineStr"/>
+      <c r="O48" s="4" t="inlineStr">
+        <is>
+          <t>🧾 Log File</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="inlineStr">
+        <is>
+          <t>test_mobile_booking_anonymous_region_eilat</t>
+        </is>
+      </c>
+      <c r="B49" s="3" t="inlineStr"/>
+      <c r="C49" s="3" t="inlineStr"/>
+      <c r="D49" s="3" t="inlineStr">
+        <is>
+          <t>בדיקת השלמת הזמנה משתמש אנונימי דרך אזור מלונות אילת</t>
+        </is>
+      </c>
+      <c r="E49" s="3" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="F49" s="3" t="inlineStr">
+        <is>
+          <t>2025-08-30 20:22:55</t>
+        </is>
+      </c>
+      <c r="G49" s="3" t="inlineStr">
+        <is>
+          <t>25.26s</t>
+        </is>
+      </c>
+      <c r="H49" s="3" t="inlineStr">
+        <is>
+          <t>Chrome</t>
+        </is>
+      </c>
+      <c r="I49" s="3" t="inlineStr">
+        <is>
+          <t>windows</t>
+        </is>
+      </c>
+      <c r="J49" s="3" t="inlineStr"/>
+      <c r="K49" s="3" t="inlineStr"/>
+      <c r="L49" s="3" t="inlineStr"/>
+      <c r="M49" s="3" t="inlineStr"/>
+      <c r="N49" s="3" t="inlineStr"/>
+      <c r="O49" s="4" t="inlineStr">
+        <is>
+          <t>🧾 Log File</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>test_mobile_booking_anonymous_region_eilat</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>980052162</t>
+        </is>
+      </c>
+      <c r="C50" s="1" t="inlineStr">
+        <is>
+          <t>788494219</t>
+        </is>
+      </c>
+      <c r="D50" s="1" t="inlineStr">
+        <is>
+          <t>בדיקת השלמת הזמנה משתמש אנונימי דרך אזור מלונות אילת</t>
+        </is>
+      </c>
+      <c r="E50" s="1" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="F50" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-30 20:26:03</t>
+        </is>
+      </c>
+      <c r="G50" s="1" t="inlineStr">
+        <is>
+          <t>130.11s</t>
+        </is>
+      </c>
+      <c r="H50" s="1" t="inlineStr">
+        <is>
+          <t>Chrome</t>
+        </is>
+      </c>
+      <c r="I50" s="1" t="inlineStr">
+        <is>
+          <t>windows</t>
+        </is>
+      </c>
+      <c r="J50" s="1" t="inlineStr">
+        <is>
+          <t>חן טסט</t>
+        </is>
+      </c>
+      <c r="K50" s="1" t="inlineStr">
+        <is>
+          <t>restestfattal@gmail.com</t>
+        </is>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>📷 Screenshot</t>
+        </is>
+      </c>
+      <c r="M50" s="2" t="inlineStr">
+        <is>
+          <t>📷 Screenshot</t>
+        </is>
+      </c>
+      <c r="N50" s="2" t="inlineStr">
+        <is>
+          <t>📷 Screenshot</t>
+        </is>
+      </c>
+      <c r="O50" s="2" t="inlineStr">
+        <is>
+          <t>🧾 Log File</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>test_mobile_booking_anonymous_user</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>980025886</t>
+        </is>
+      </c>
+      <c r="C51" s="1" t="inlineStr">
+        <is>
+          <t>329533012</t>
+        </is>
+      </c>
+      <c r="D51" s="1" t="inlineStr">
+        <is>
+          <t>בדיקת השלמת הזמנה משתמש אנונימי</t>
+        </is>
+      </c>
+      <c r="E51" s="1" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="F51" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-30 20:30:11</t>
+        </is>
+      </c>
+      <c r="G51" s="1" t="inlineStr">
+        <is>
+          <t>74.79s</t>
+        </is>
+      </c>
+      <c r="H51" s="1" t="inlineStr">
+        <is>
+          <t>Chrome</t>
+        </is>
+      </c>
+      <c r="I51" s="1" t="inlineStr">
+        <is>
+          <t>windows</t>
+        </is>
+      </c>
+      <c r="J51" s="1" t="inlineStr">
+        <is>
+          <t>חן טסט</t>
+        </is>
+      </c>
+      <c r="K51" s="1" t="inlineStr">
+        <is>
+          <t>restestfattal@gmail.com</t>
+        </is>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>📷 Screenshot</t>
+        </is>
+      </c>
+      <c r="M51" s="2" t="inlineStr">
+        <is>
+          <t>📷 Screenshot</t>
+        </is>
+      </c>
+      <c r="N51" s="2" t="inlineStr">
+        <is>
+          <t>📷 Screenshot</t>
+        </is>
+      </c>
+      <c r="O51" s="2" t="inlineStr">
         <is>
           <t>🧾 Log File</t>
         </is>
@@ -2965,6 +3808,33 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L36" r:id="rId95"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M36" r:id="rId96"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O36" r:id="rId97"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O37" r:id="rId98"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O38" r:id="rId99"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O39" r:id="rId100"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O40" r:id="rId101"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O41" r:id="rId102"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O42" r:id="rId103"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O43" r:id="rId104"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O44" r:id="rId105"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L45" r:id="rId106"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M45" r:id="rId107"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N45" r:id="rId108"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O45" r:id="rId109"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O46" r:id="rId110"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L47" r:id="rId111"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M47" r:id="rId112"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N47" r:id="rId113"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O47" r:id="rId114"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O48" r:id="rId115"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O49" r:id="rId116"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L50" r:id="rId117"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M50" r:id="rId118"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N50" r:id="rId119"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O50" r:id="rId120"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L51" r:id="rId121"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M51" r:id="rId122"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N51" r:id="rId123"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O51" r:id="rId124"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/TestResults.xlsx
+++ b/TestResults.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:O55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3704,6 +3704,238 @@
         </is>
       </c>
       <c r="O51" s="2" t="inlineStr">
+        <is>
+          <t>🧾 Log File</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="inlineStr">
+        <is>
+          <t>test_mobile_booking_club_member_eilat_with_flight</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr"/>
+      <c r="C52" s="3" t="inlineStr">
+        <is>
+          <t>999318330</t>
+        </is>
+      </c>
+      <c r="D52" s="3" t="inlineStr">
+        <is>
+          <t>בדיקת השלמת הזמנה משתמש מחובר עם מועדון פעיל + טיסות</t>
+        </is>
+      </c>
+      <c r="E52" s="3" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="F52" s="3" t="inlineStr">
+        <is>
+          <t>2025-08-30 20:32:40</t>
+        </is>
+      </c>
+      <c r="G52" s="3" t="inlineStr">
+        <is>
+          <t>38.42s</t>
+        </is>
+      </c>
+      <c r="H52" s="3" t="inlineStr">
+        <is>
+          <t>Chrome</t>
+        </is>
+      </c>
+      <c r="I52" s="3" t="inlineStr">
+        <is>
+          <t>windows</t>
+        </is>
+      </c>
+      <c r="J52" s="3" t="inlineStr">
+        <is>
+          <t>Club User</t>
+        </is>
+      </c>
+      <c r="K52" s="3" t="inlineStr">
+        <is>
+          <t>restestfattal@gmail.com</t>
+        </is>
+      </c>
+      <c r="L52" s="3" t="inlineStr"/>
+      <c r="M52" s="3" t="inlineStr"/>
+      <c r="N52" s="3" t="inlineStr"/>
+      <c r="O52" s="4" t="inlineStr">
+        <is>
+          <t>🧾 Log File</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="inlineStr">
+        <is>
+          <t>test_mobile_booking_club_member_eilat_with_flight</t>
+        </is>
+      </c>
+      <c r="B53" s="3" t="inlineStr"/>
+      <c r="C53" s="3" t="inlineStr">
+        <is>
+          <t>999318330</t>
+        </is>
+      </c>
+      <c r="D53" s="3" t="inlineStr">
+        <is>
+          <t>בדיקת השלמת הזמנה משתמש מחובר עם מועדון פעיל + טיסות</t>
+        </is>
+      </c>
+      <c r="E53" s="3" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="F53" s="3" t="inlineStr">
+        <is>
+          <t>2025-08-30 20:35:33</t>
+        </is>
+      </c>
+      <c r="G53" s="3" t="inlineStr">
+        <is>
+          <t>112.50s</t>
+        </is>
+      </c>
+      <c r="H53" s="3" t="inlineStr">
+        <is>
+          <t>Chrome</t>
+        </is>
+      </c>
+      <c r="I53" s="3" t="inlineStr">
+        <is>
+          <t>windows</t>
+        </is>
+      </c>
+      <c r="J53" s="3" t="inlineStr">
+        <is>
+          <t>Club User</t>
+        </is>
+      </c>
+      <c r="K53" s="3" t="inlineStr">
+        <is>
+          <t>restestfattal@gmail.com</t>
+        </is>
+      </c>
+      <c r="L53" s="3" t="inlineStr"/>
+      <c r="M53" s="3" t="inlineStr"/>
+      <c r="N53" s="3" t="inlineStr"/>
+      <c r="O53" s="4" t="inlineStr">
+        <is>
+          <t>🧾 Log File</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="inlineStr">
+        <is>
+          <t>test_mobile_booking_club_member_eilat_with_flight</t>
+        </is>
+      </c>
+      <c r="B54" s="3" t="inlineStr"/>
+      <c r="C54" s="3" t="inlineStr">
+        <is>
+          <t>999318330</t>
+        </is>
+      </c>
+      <c r="D54" s="3" t="inlineStr">
+        <is>
+          <t>בדיקת השלמת הזמנה משתמש מחובר עם מועדון פעיל + טיסות</t>
+        </is>
+      </c>
+      <c r="E54" s="3" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="F54" s="3" t="inlineStr">
+        <is>
+          <t>2025-08-30 20:37:36</t>
+        </is>
+      </c>
+      <c r="G54" s="3" t="inlineStr">
+        <is>
+          <t>111.12s</t>
+        </is>
+      </c>
+      <c r="H54" s="3" t="inlineStr">
+        <is>
+          <t>Chrome</t>
+        </is>
+      </c>
+      <c r="I54" s="3" t="inlineStr">
+        <is>
+          <t>windows</t>
+        </is>
+      </c>
+      <c r="J54" s="3" t="inlineStr">
+        <is>
+          <t>Club User</t>
+        </is>
+      </c>
+      <c r="K54" s="3" t="inlineStr">
+        <is>
+          <t>restestfattal@gmail.com</t>
+        </is>
+      </c>
+      <c r="L54" s="3" t="inlineStr"/>
+      <c r="M54" s="3" t="inlineStr"/>
+      <c r="N54" s="3" t="inlineStr"/>
+      <c r="O54" s="4" t="inlineStr">
+        <is>
+          <t>🧾 Log File</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="inlineStr">
+        <is>
+          <t>test_mobile_booking_anonymous_user</t>
+        </is>
+      </c>
+      <c r="B55" s="3" t="inlineStr"/>
+      <c r="C55" s="3" t="inlineStr"/>
+      <c r="D55" s="3" t="inlineStr">
+        <is>
+          <t>בדיקת השלמת הזמנה משתמש אנונימי</t>
+        </is>
+      </c>
+      <c r="E55" s="3" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="F55" s="3" t="inlineStr">
+        <is>
+          <t>2025-08-30 20:54:04</t>
+        </is>
+      </c>
+      <c r="G55" s="3" t="inlineStr">
+        <is>
+          <t>39.31s</t>
+        </is>
+      </c>
+      <c r="H55" s="3" t="inlineStr">
+        <is>
+          <t>Chrome</t>
+        </is>
+      </c>
+      <c r="I55" s="3" t="inlineStr">
+        <is>
+          <t>windows</t>
+        </is>
+      </c>
+      <c r="J55" s="3" t="inlineStr"/>
+      <c r="K55" s="3" t="inlineStr"/>
+      <c r="L55" s="3" t="inlineStr"/>
+      <c r="M55" s="3" t="inlineStr"/>
+      <c r="N55" s="3" t="inlineStr"/>
+      <c r="O55" s="4" t="inlineStr">
         <is>
           <t>🧾 Log File</t>
         </is>
@@ -3835,6 +4067,10 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M51" r:id="rId122"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N51" r:id="rId123"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O51" r:id="rId124"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O52" r:id="rId125"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O53" r:id="rId126"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O54" r:id="rId127"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O55" r:id="rId128"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/TestResults.xlsx
+++ b/TestResults.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O55"/>
+  <dimension ref="A1:O66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3936,6 +3936,657 @@
       <c r="M55" s="3" t="inlineStr"/>
       <c r="N55" s="3" t="inlineStr"/>
       <c r="O55" s="4" t="inlineStr">
+        <is>
+          <t>🧾 Log File</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="inlineStr">
+        <is>
+          <t>test_desktop_anonymous_booking</t>
+        </is>
+      </c>
+      <c r="B56" s="3" t="inlineStr"/>
+      <c r="C56" s="3" t="inlineStr"/>
+      <c r="D56" s="3" t="inlineStr">
+        <is>
+          <t>בדיקת השלמת הזמנה מתשמש אנונימי</t>
+        </is>
+      </c>
+      <c r="E56" s="3" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="F56" s="3" t="inlineStr">
+        <is>
+          <t>2025-08-30 20:56:47</t>
+        </is>
+      </c>
+      <c r="G56" s="3" t="inlineStr">
+        <is>
+          <t>46.64s</t>
+        </is>
+      </c>
+      <c r="H56" s="3" t="inlineStr">
+        <is>
+          <t>chrome</t>
+        </is>
+      </c>
+      <c r="I56" s="3" t="inlineStr">
+        <is>
+          <t>Windows</t>
+        </is>
+      </c>
+      <c r="J56" s="3" t="inlineStr"/>
+      <c r="K56" s="3" t="inlineStr"/>
+      <c r="L56" s="3" t="inlineStr"/>
+      <c r="M56" s="3" t="inlineStr"/>
+      <c r="N56" s="4" t="inlineStr">
+        <is>
+          <t>📷 Screenshot</t>
+        </is>
+      </c>
+      <c r="O56" s="4" t="inlineStr">
+        <is>
+          <t>🧾 Log File</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="inlineStr">
+        <is>
+          <t>test_desktop_anonymous_booking</t>
+        </is>
+      </c>
+      <c r="B57" s="3" t="inlineStr"/>
+      <c r="C57" s="3" t="inlineStr"/>
+      <c r="D57" s="3" t="inlineStr">
+        <is>
+          <t>בדיקת השלמת הזמנה מתשמש אנונימי</t>
+        </is>
+      </c>
+      <c r="E57" s="3" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="F57" s="3" t="inlineStr">
+        <is>
+          <t>2025-08-30 20:59:03</t>
+        </is>
+      </c>
+      <c r="G57" s="3" t="inlineStr">
+        <is>
+          <t>45.53s</t>
+        </is>
+      </c>
+      <c r="H57" s="3" t="inlineStr">
+        <is>
+          <t>chrome</t>
+        </is>
+      </c>
+      <c r="I57" s="3" t="inlineStr">
+        <is>
+          <t>Windows</t>
+        </is>
+      </c>
+      <c r="J57" s="3" t="inlineStr"/>
+      <c r="K57" s="3" t="inlineStr"/>
+      <c r="L57" s="3" t="inlineStr"/>
+      <c r="M57" s="3" t="inlineStr"/>
+      <c r="N57" s="4" t="inlineStr">
+        <is>
+          <t>📷 Screenshot</t>
+        </is>
+      </c>
+      <c r="O57" s="4" t="inlineStr">
+        <is>
+          <t>🧾 Log File</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="inlineStr">
+        <is>
+          <t>test_desktop_anonymous_booking</t>
+        </is>
+      </c>
+      <c r="B58" s="3" t="inlineStr"/>
+      <c r="C58" s="3" t="inlineStr"/>
+      <c r="D58" s="3" t="inlineStr">
+        <is>
+          <t>בדיקת השלמת הזמנה מתשמש אנונימי</t>
+        </is>
+      </c>
+      <c r="E58" s="3" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="F58" s="3" t="inlineStr">
+        <is>
+          <t>2025-08-30 20:59:56</t>
+        </is>
+      </c>
+      <c r="G58" s="3" t="inlineStr">
+        <is>
+          <t>46.07s</t>
+        </is>
+      </c>
+      <c r="H58" s="3" t="inlineStr">
+        <is>
+          <t>chrome</t>
+        </is>
+      </c>
+      <c r="I58" s="3" t="inlineStr">
+        <is>
+          <t>Windows</t>
+        </is>
+      </c>
+      <c r="J58" s="3" t="inlineStr"/>
+      <c r="K58" s="3" t="inlineStr"/>
+      <c r="L58" s="3" t="inlineStr"/>
+      <c r="M58" s="3" t="inlineStr"/>
+      <c r="N58" s="4" t="inlineStr">
+        <is>
+          <t>📷 Screenshot</t>
+        </is>
+      </c>
+      <c r="O58" s="4" t="inlineStr">
+        <is>
+          <t>🧾 Log File</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="inlineStr">
+        <is>
+          <t>test_desktop_anonymous_booking</t>
+        </is>
+      </c>
+      <c r="B59" s="3" t="inlineStr"/>
+      <c r="C59" s="3" t="inlineStr"/>
+      <c r="D59" s="3" t="inlineStr">
+        <is>
+          <t>בדיקת השלמת הזמנה מתשמש אנונימי</t>
+        </is>
+      </c>
+      <c r="E59" s="3" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="F59" s="3" t="inlineStr">
+        <is>
+          <t>2025-08-30 21:02:23</t>
+        </is>
+      </c>
+      <c r="G59" s="3" t="inlineStr">
+        <is>
+          <t>45.85s</t>
+        </is>
+      </c>
+      <c r="H59" s="3" t="inlineStr">
+        <is>
+          <t>chrome</t>
+        </is>
+      </c>
+      <c r="I59" s="3" t="inlineStr">
+        <is>
+          <t>Windows</t>
+        </is>
+      </c>
+      <c r="J59" s="3" t="inlineStr"/>
+      <c r="K59" s="3" t="inlineStr"/>
+      <c r="L59" s="3" t="inlineStr"/>
+      <c r="M59" s="3" t="inlineStr"/>
+      <c r="N59" s="4" t="inlineStr">
+        <is>
+          <t>📷 Screenshot</t>
+        </is>
+      </c>
+      <c r="O59" s="4" t="inlineStr">
+        <is>
+          <t>🧾 Log File</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="inlineStr">
+        <is>
+          <t>test_desktop_anonymous_booking</t>
+        </is>
+      </c>
+      <c r="B60" s="3" t="inlineStr"/>
+      <c r="C60" s="3" t="inlineStr"/>
+      <c r="D60" s="3" t="inlineStr">
+        <is>
+          <t>בדיקת השלמת הזמנה מתשמש אנונימי</t>
+        </is>
+      </c>
+      <c r="E60" s="3" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="F60" s="3" t="inlineStr">
+        <is>
+          <t>2025-08-30 21:05:38</t>
+        </is>
+      </c>
+      <c r="G60" s="3" t="inlineStr">
+        <is>
+          <t>45.38s</t>
+        </is>
+      </c>
+      <c r="H60" s="3" t="inlineStr">
+        <is>
+          <t>chrome</t>
+        </is>
+      </c>
+      <c r="I60" s="3" t="inlineStr">
+        <is>
+          <t>Windows</t>
+        </is>
+      </c>
+      <c r="J60" s="3" t="inlineStr"/>
+      <c r="K60" s="3" t="inlineStr"/>
+      <c r="L60" s="3" t="inlineStr"/>
+      <c r="M60" s="3" t="inlineStr"/>
+      <c r="N60" s="4" t="inlineStr">
+        <is>
+          <t>📷 Screenshot</t>
+        </is>
+      </c>
+      <c r="O60" s="4" t="inlineStr">
+        <is>
+          <t>🧾 Log File</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="inlineStr">
+        <is>
+          <t>test_desktop_anonymous_booking</t>
+        </is>
+      </c>
+      <c r="B61" s="3" t="inlineStr"/>
+      <c r="C61" s="3" t="inlineStr"/>
+      <c r="D61" s="3" t="inlineStr">
+        <is>
+          <t>בדיקת השלמת הזמנה מתשמש אנונימי</t>
+        </is>
+      </c>
+      <c r="E61" s="3" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="F61" s="3" t="inlineStr">
+        <is>
+          <t>2025-08-30 21:07:08</t>
+        </is>
+      </c>
+      <c r="G61" s="3" t="inlineStr">
+        <is>
+          <t>29.67s</t>
+        </is>
+      </c>
+      <c r="H61" s="3" t="inlineStr">
+        <is>
+          <t>chrome</t>
+        </is>
+      </c>
+      <c r="I61" s="3" t="inlineStr">
+        <is>
+          <t>Windows</t>
+        </is>
+      </c>
+      <c r="J61" s="3" t="inlineStr"/>
+      <c r="K61" s="3" t="inlineStr"/>
+      <c r="L61" s="3" t="inlineStr"/>
+      <c r="M61" s="3" t="inlineStr"/>
+      <c r="N61" s="4" t="inlineStr">
+        <is>
+          <t>📷 Screenshot</t>
+        </is>
+      </c>
+      <c r="O61" s="4" t="inlineStr">
+        <is>
+          <t>🧾 Log File</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="inlineStr">
+        <is>
+          <t>test_desktop_anonymous_booking</t>
+        </is>
+      </c>
+      <c r="B62" s="3" t="inlineStr"/>
+      <c r="C62" s="3" t="inlineStr">
+        <is>
+          <t>256898768</t>
+        </is>
+      </c>
+      <c r="D62" s="3" t="inlineStr">
+        <is>
+          <t>בדיקת השלמת הזמנה מתשמש אנונימי</t>
+        </is>
+      </c>
+      <c r="E62" s="3" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="F62" s="3" t="inlineStr">
+        <is>
+          <t>2025-08-30 21:08:25</t>
+        </is>
+      </c>
+      <c r="G62" s="3" t="inlineStr">
+        <is>
+          <t>39.39s</t>
+        </is>
+      </c>
+      <c r="H62" s="3" t="inlineStr">
+        <is>
+          <t>chrome</t>
+        </is>
+      </c>
+      <c r="I62" s="3" t="inlineStr">
+        <is>
+          <t>Windows</t>
+        </is>
+      </c>
+      <c r="J62" s="3" t="inlineStr"/>
+      <c r="K62" s="3" t="inlineStr"/>
+      <c r="L62" s="3" t="inlineStr"/>
+      <c r="M62" s="3" t="inlineStr"/>
+      <c r="N62" s="4" t="inlineStr">
+        <is>
+          <t>📷 Screenshot</t>
+        </is>
+      </c>
+      <c r="O62" s="4" t="inlineStr">
+        <is>
+          <t>🧾 Log File</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="inlineStr">
+        <is>
+          <t>test_desktop_anonymous_booking</t>
+        </is>
+      </c>
+      <c r="B63" s="3" t="inlineStr"/>
+      <c r="C63" s="3" t="inlineStr">
+        <is>
+          <t>888438629</t>
+        </is>
+      </c>
+      <c r="D63" s="3" t="inlineStr">
+        <is>
+          <t>בדיקת השלמת הזמנה מתשמש אנונימי</t>
+        </is>
+      </c>
+      <c r="E63" s="3" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="F63" s="3" t="inlineStr">
+        <is>
+          <t>2025-08-30 21:13:41</t>
+        </is>
+      </c>
+      <c r="G63" s="3" t="inlineStr">
+        <is>
+          <t>38.18s</t>
+        </is>
+      </c>
+      <c r="H63" s="3" t="inlineStr">
+        <is>
+          <t>chrome</t>
+        </is>
+      </c>
+      <c r="I63" s="3" t="inlineStr">
+        <is>
+          <t>Windows</t>
+        </is>
+      </c>
+      <c r="J63" s="3" t="inlineStr"/>
+      <c r="K63" s="3" t="inlineStr"/>
+      <c r="L63" s="3" t="inlineStr"/>
+      <c r="M63" s="3" t="inlineStr"/>
+      <c r="N63" s="4" t="inlineStr">
+        <is>
+          <t>📷 Screenshot</t>
+        </is>
+      </c>
+      <c r="O63" s="4" t="inlineStr">
+        <is>
+          <t>🧾 Log File</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="inlineStr">
+        <is>
+          <t>test_desktop_anonymous_booking</t>
+        </is>
+      </c>
+      <c r="B64" s="3" t="inlineStr"/>
+      <c r="C64" s="3" t="inlineStr">
+        <is>
+          <t>503517476</t>
+        </is>
+      </c>
+      <c r="D64" s="3" t="inlineStr">
+        <is>
+          <t>בדיקת השלמת הזמנה מתשמש אנונימי</t>
+        </is>
+      </c>
+      <c r="E64" s="3" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="F64" s="3" t="inlineStr">
+        <is>
+          <t>2025-08-30 21:15:37</t>
+        </is>
+      </c>
+      <c r="G64" s="3" t="inlineStr">
+        <is>
+          <t>52.71s</t>
+        </is>
+      </c>
+      <c r="H64" s="3" t="inlineStr">
+        <is>
+          <t>chrome</t>
+        </is>
+      </c>
+      <c r="I64" s="3" t="inlineStr">
+        <is>
+          <t>Windows</t>
+        </is>
+      </c>
+      <c r="J64" s="3" t="inlineStr">
+        <is>
+          <t>חן טסט</t>
+        </is>
+      </c>
+      <c r="K64" s="3" t="inlineStr">
+        <is>
+          <t>restestfattal@gmail.com</t>
+        </is>
+      </c>
+      <c r="L64" s="4" t="inlineStr">
+        <is>
+          <t>📷 Screenshot</t>
+        </is>
+      </c>
+      <c r="M64" s="4" t="inlineStr">
+        <is>
+          <t>📷 Screenshot</t>
+        </is>
+      </c>
+      <c r="N64" s="3" t="inlineStr"/>
+      <c r="O64" s="4" t="inlineStr">
+        <is>
+          <t>🧾 Log File</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="inlineStr">
+        <is>
+          <t>test_desktop_booking_anonymous_region_eilat</t>
+        </is>
+      </c>
+      <c r="B65" s="3" t="inlineStr"/>
+      <c r="C65" s="3" t="inlineStr">
+        <is>
+          <t>794085886</t>
+        </is>
+      </c>
+      <c r="D65" s="3" t="inlineStr">
+        <is>
+          <t>בדיקת השלמת הזמנה משתמש אנונימי דרך אזור מלונות אילת</t>
+        </is>
+      </c>
+      <c r="E65" s="3" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="F65" s="3" t="inlineStr">
+        <is>
+          <t>2025-08-30 21:17:29</t>
+        </is>
+      </c>
+      <c r="G65" s="3" t="inlineStr">
+        <is>
+          <t>106.01s</t>
+        </is>
+      </c>
+      <c r="H65" s="3" t="inlineStr">
+        <is>
+          <t>chrome</t>
+        </is>
+      </c>
+      <c r="I65" s="3" t="inlineStr">
+        <is>
+          <t>Windows</t>
+        </is>
+      </c>
+      <c r="J65" s="3" t="inlineStr">
+        <is>
+          <t>חן טסט</t>
+        </is>
+      </c>
+      <c r="K65" s="3" t="inlineStr">
+        <is>
+          <t>restestfattal@gmail.com</t>
+        </is>
+      </c>
+      <c r="L65" s="4" t="inlineStr">
+        <is>
+          <t>📷 Screenshot</t>
+        </is>
+      </c>
+      <c r="M65" s="4" t="inlineStr">
+        <is>
+          <t>📷 Screenshot</t>
+        </is>
+      </c>
+      <c r="N65" s="4" t="inlineStr">
+        <is>
+          <t>📷 Screenshot</t>
+        </is>
+      </c>
+      <c r="O65" s="4" t="inlineStr">
+        <is>
+          <t>🧾 Log File</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>test_desktop_anonymous_booking</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>980025889</t>
+        </is>
+      </c>
+      <c r="C66" s="1" t="inlineStr">
+        <is>
+          <t>435686373</t>
+        </is>
+      </c>
+      <c r="D66" s="1" t="inlineStr">
+        <is>
+          <t>בדיקת השלמת הזמנה מתשמש אנונימי</t>
+        </is>
+      </c>
+      <c r="E66" s="1" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="F66" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-30 21:22:34</t>
+        </is>
+      </c>
+      <c r="G66" s="1" t="inlineStr">
+        <is>
+          <t>69.46s</t>
+        </is>
+      </c>
+      <c r="H66" s="1" t="inlineStr">
+        <is>
+          <t>chrome</t>
+        </is>
+      </c>
+      <c r="I66" s="1" t="inlineStr">
+        <is>
+          <t>Windows</t>
+        </is>
+      </c>
+      <c r="J66" s="1" t="inlineStr">
+        <is>
+          <t>חן טסט</t>
+        </is>
+      </c>
+      <c r="K66" s="1" t="inlineStr">
+        <is>
+          <t>restestfattal@gmail.com</t>
+        </is>
+      </c>
+      <c r="L66" s="2" t="inlineStr">
+        <is>
+          <t>📷 Screenshot</t>
+        </is>
+      </c>
+      <c r="M66" s="2" t="inlineStr">
+        <is>
+          <t>📷 Screenshot</t>
+        </is>
+      </c>
+      <c r="N66" s="2" t="inlineStr">
+        <is>
+          <t>📷 Screenshot</t>
+        </is>
+      </c>
+      <c r="O66" s="2" t="inlineStr">
         <is>
           <t>🧾 Log File</t>
         </is>
@@ -4071,6 +4722,33 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O53" r:id="rId126"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O54" r:id="rId127"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O55" r:id="rId128"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N56" r:id="rId129"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O56" r:id="rId130"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N57" r:id="rId131"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O57" r:id="rId132"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N58" r:id="rId133"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O58" r:id="rId134"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N59" r:id="rId135"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O59" r:id="rId136"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N60" r:id="rId137"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O60" r:id="rId138"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N61" r:id="rId139"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O61" r:id="rId140"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N62" r:id="rId141"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O62" r:id="rId142"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N63" r:id="rId143"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O63" r:id="rId144"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L64" r:id="rId145"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M64" r:id="rId146"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O64" r:id="rId147"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L65" r:id="rId148"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M65" r:id="rId149"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N65" r:id="rId150"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O65" r:id="rId151"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L66" r:id="rId152"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M66" r:id="rId153"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="N66" r:id="rId154"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="O66" r:id="rId155"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
